--- a/app/main/output_data/WATER_STRESS.xlsx
+++ b/app/main/output_data/WATER_STRESS.xlsx
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>10.57170258767394</v>
+        <v>11.36008564076695</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1706715266225506</v>
+        <v>0.1156543809857414</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -911,10 +911,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>15.00220331969065</v>
+        <v>11.61063899318076</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.09363942344808923</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>17.83363368775032</v>
+        <v>11.57643181031762</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.09677138281743747</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>9.422386557983856</v>
+        <v>11.4383560042545</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2510846869352339</v>
+        <v>0.1088491315864413</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>10.71923162399317</v>
+        <v>11.67264744965477</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1597499415548374</v>
+        <v>0.08801338239785902</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>10.75493837110218</v>
+        <v>11.37159708578382</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2077915860388012</v>
+        <v>0.1145108043629041</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>9.354674742352932</v>
+        <v>11.14518568030989</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2561936764065056</v>
+        <v>0.1335205607034205</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>10.38579778505254</v>
+        <v>10.59463663739191</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1851662510455487</v>
+        <v>0.1759371740430315</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
@@ -2038,10 +2038,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>9.934789617778641</v>
+        <v>11.65089457655434</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2175051897709055</v>
+        <v>0.09008918071529233</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>9.879566182480339</v>
+        <v>11.75102708152042</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2212777441907293</v>
+        <v>0.08070109203800818</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>10.23134895624962</v>
+        <v>10.3409728662828</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1964264658646813</v>
+        <v>0.1942723647240459</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>0.5622760848865064</v>
+        <v>11.96559306536945</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3553497234280534</v>
+        <v>0.06000409716609783</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>10.18907589057517</v>
+        <v>11.66363455996848</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1995152239125992</v>
+        <v>0.08889015848272437</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>9.7625900048173</v>
+        <v>10.84448128623735</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2293295700166573</v>
+        <v>0.1571291157357547</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>3.722077647095179</v>
+        <v>11.23558815194712</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4620751887828102</v>
+        <v>0.1261139448437915</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>10.15450733517936</v>
+        <v>11.42896808026543</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.201871265597446</v>
+        <v>0.1097511059026255</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>8.911092776082608</v>
+        <v>11.78015346887931</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2837476463387265</v>
+        <v>0.07812490618186012</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
@@ -3487,10 +3487,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>8.990672482058843</v>
+        <v>11.96387952834107</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.2788928571846828</v>
+        <v>0.06015251732335353</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
@@ -3648,10 +3648,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>8.435919938162625</v>
+        <v>11.64685561036033</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.3113719192295045</v>
+        <v>0.08995554719480493</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>8.936205482113641</v>
+        <v>11.67278111430699</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2822324777174423</v>
+        <v>0.08810575111422424</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
@@ -3970,10 +3970,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>8.964406914206284</v>
+        <v>11.54577288349549</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2805317144863217</v>
+        <v>0.09951943382441919</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>9.370006489152349</v>
+        <v>11.14498816498866</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2552156591883084</v>
+        <v>0.1318106808018136</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>8.890189770138198</v>
+        <v>11.87216327610011</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2850092213124247</v>
+        <v>0.06920492757338953</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>8.387165327473788</v>
+        <v>11.29111111861821</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.3141594774385426</v>
+        <v>0.1214582604979351</v>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>8.647326503090278</v>
+        <v>12.00611184390467</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.2993049651733093</v>
+        <v>0.05587226142506073</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
@@ -4775,10 +4775,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>8.449989492152568</v>
+        <v>11.78224705879602</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.3105602298447824</v>
+        <v>0.07754567665102832</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>8.011131836092744</v>
+        <v>12.00194529859052</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.3335510372684535</v>
+        <v>0.05622809178057858</v>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>8.805484234355179</v>
+        <v>11.95539421126097</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.290069007639057</v>
+        <v>0.06102934460890001</v>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
@@ -5258,10 +5258,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>8.408014981368524</v>
+        <v>11.92280592011966</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.3130022281331831</v>
+        <v>0.06428410182283992</v>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>8.999901025275934</v>
+        <v>11.92336004701977</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2783639384629576</v>
+        <v>0.06426609471065076</v>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>8.481090821734504</v>
+        <v>10.47221003541161</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.3088086617841406</v>
+        <v>0.1850350615894528</v>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
@@ -5741,10 +5741,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>8.549519724970182</v>
+        <v>10.89406381871147</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.3048387668363761</v>
+        <v>0.1536913333345172</v>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>9.007940239908303</v>
+        <v>11.78014805358989</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.2778825247535573</v>
+        <v>0.0780878114918105</v>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>6.430908622541724</v>
+        <v>11.17592129863795</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3272373184166957</v>
+        <v>0.1310914989151206</v>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
@@ -6224,10 +6224,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>9.646028701115821</v>
+        <v>10.16648461975724</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.2371586634552536</v>
+        <v>0.2075580718652692</v>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
@@ -6385,10 +6385,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>8.42490402033936</v>
+        <v>10.32539098259295</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.3119664518946675</v>
+        <v>0.1958855078585408</v>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>9.00697761115358</v>
+        <v>11.2885096447259</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.2779348870547319</v>
+        <v>0.1217285110028065</v>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>8.870295196095602</v>
+        <v>11.28979304650339</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.2861550557918982</v>
+        <v>0.1216330278654165</v>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>8.24973983405596</v>
+        <v>7.207057789444182</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.3217766743871326</v>
+        <v>0.3774951866438668</v>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>9.242937191903433</v>
+        <v>11.40030679710193</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.2633021888084554</v>
+        <v>0.1122668236970414</v>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>8.617790718140153</v>
+        <v>10.84075117908334</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.3010540243821488</v>
+        <v>0.1578240221877171</v>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
@@ -7351,10 +7351,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>8.153210060077623</v>
+        <v>11.02810591918501</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.3265126265997639</v>
+        <v>0.1430181757716062</v>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
@@ -7512,10 +7512,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>8.552229601299043</v>
+        <v>11.3996594657844</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.3048300205811753</v>
+        <v>0.1122902274266556</v>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
@@ -7673,10 +7673,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>7.545614587107799</v>
+        <v>9.983003038142321</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.3580393669264859</v>
+        <v>0.2191332663986555</v>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
@@ -7834,10 +7834,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>8.544401536918929</v>
+        <v>10.14930724899996</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.3052788553667577</v>
+        <v>0.2086992338901249</v>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>8.16552805576244</v>
+        <v>11.73559145155982</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.3261900406363802</v>
+        <v>0.08226019395126469</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>8.490716253955769</v>
+        <v>11.78759328267924</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.3082383292467022</v>
+        <v>0.07650629189877677</v>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>3.103168275242703</v>
+        <v>11.67226364431777</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.4945545820117087</v>
+        <v>0.08815683589059506</v>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
@@ -8478,10 +8478,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>8.653668443966978</v>
+        <v>11.20197745247767</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.2988607405271959</v>
+        <v>0.1287467570057511</v>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
@@ -8639,10 +8639,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>8.847606551088401</v>
+        <v>11.663031169412</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.2875534821856834</v>
+        <v>0.08898565404791688</v>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
@@ -8800,10 +8800,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>8.654875011152201</v>
+        <v>11.74356934481581</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.2989113064376648</v>
+        <v>0.08157476292225647</v>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
@@ -8961,10 +8961,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>8.266401834047407</v>
+        <v>10.76417797531737</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.3203341648745587</v>
+        <v>0.1636233944506418</v>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>8.459363646387828</v>
+        <v>10.59757629615313</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.3101109147428469</v>
+        <v>0.1763420037958639</v>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
@@ -9283,10 +9283,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>8.363980738121828</v>
+        <v>11.46652840848173</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.3154632211804558</v>
+        <v>0.1065437911602769</v>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
@@ -9444,10 +9444,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>8.309107545627484</v>
+        <v>10.79146636975088</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.3185108383317264</v>
+        <v>0.161560063294204</v>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
@@ -9605,10 +9605,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>3.742282351943697</v>
+        <v>10.94475563050884</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.4907288991922607</v>
+        <v>0.1497223994413058</v>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>6.427607800823516</v>
+        <v>10.48587961253017</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.407746927526792</v>
+        <v>0.1842709427834083</v>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
@@ -9927,10 +9927,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>8.45856337005182</v>
+        <v>11.61329173086938</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.3101571517387996</v>
+        <v>0.09340798768206732</v>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
@@ -10088,10 +10088,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>8.565462859876995</v>
+        <v>10.67767413396706</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.3040673981755581</v>
+        <v>0.1696009648074429</v>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>16.69901942830996</v>
+        <v>10.8763047109223</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.04860713234204225</v>
+        <v>0.1550941409204886</v>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
@@ -10410,10 +10410,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>76.76690020863602</v>
+        <v>11.15761887997082</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.1281396923594322</v>
+        <v>0.132122148525906</v>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
@@ -10571,10 +10571,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>2.360872175012255</v>
+        <v>11.16358702032546</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.5101094659577954</v>
+        <v>0.131988501742969</v>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>8.416239858213022</v>
+        <v>11.23202298648803</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.3125406945962613</v>
+        <v>0.1264565736548345</v>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
@@ -10893,10 +10893,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>9.319765531770196</v>
+        <v>11.42547355838927</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.2584319418323471</v>
+        <v>0.1101052656276028</v>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
@@ -11054,10 +11054,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>8.947301632529276</v>
+        <v>11.02974181092515</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.2815142247272936</v>
+        <v>0.1428930308537114</v>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>7.84337918770668</v>
+        <v>11.10337406363876</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.3433524962811724</v>
+        <v>0.1370362484047418</v>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
@@ -11376,10 +11376,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>34.40001743767695</v>
+        <v>11.93393886063842</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.09866573111663052</v>
+        <v>0.06314449427327039</v>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
@@ -11537,10 +11537,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>12.0440991310467</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.07828967756428323</v>
+        <v>0.05195400672598394</v>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
@@ -11698,10 +11698,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>7.80672893660704</v>
+        <v>11.65243275350494</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.3452729216923067</v>
+        <v>0.08996553968004857</v>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
@@ -11859,10 +11859,10 @@
         </is>
       </c>
       <c r="AE71" t="n">
-        <v>8.336481918132909</v>
+        <v>11.79036537593182</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.3169875155942663</v>
+        <v>0.0770136110268001</v>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
@@ -12020,10 +12020,10 @@
         </is>
       </c>
       <c r="AE72" t="n">
-        <v>9.233593164657323</v>
+        <v>12.32281770923462</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.2638911600679055</v>
+        <v>0.01987148548159828</v>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
@@ -12181,10 +12181,10 @@
         </is>
       </c>
       <c r="AE73" t="n">
-        <v>9.434791509569905</v>
+        <v>11.42626703398881</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.2486848863650379</v>
+        <v>0.1097930325235665</v>
       </c>
       <c r="AG73" t="inlineStr">
         <is>
@@ -12342,10 +12342,10 @@
         </is>
       </c>
       <c r="AE74" t="n">
-        <v>8.339833799475025</v>
+        <v>11.85062368911356</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.3168092480053323</v>
+        <v>0.07140397110281124</v>
       </c>
       <c r="AG74" t="inlineStr">
         <is>
@@ -12503,10 +12503,10 @@
         </is>
       </c>
       <c r="AE75" t="n">
-        <v>5.219989026578852</v>
+        <v>11.05320717093178</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.4480788197817235</v>
+        <v>0.1409442264283645</v>
       </c>
       <c r="AG75" t="inlineStr">
         <is>
@@ -12664,10 +12664,10 @@
         </is>
       </c>
       <c r="AE76" t="n">
-        <v>8.50817556017766</v>
+        <v>11.44806720526393</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.3072621864377158</v>
+        <v>0.1079157211063791</v>
       </c>
       <c r="AG76" t="inlineStr">
         <is>
@@ -12825,10 +12825,10 @@
         </is>
       </c>
       <c r="AE77" t="n">
-        <v>8.389465609631245</v>
+        <v>11.86751757856813</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.314043488960591</v>
+        <v>0.06976607753549947</v>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
@@ -12986,10 +12986,10 @@
         </is>
       </c>
       <c r="AE78" t="n">
-        <v>7.6756266167129</v>
+        <v>10.45795444713947</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.3508606054282327</v>
+        <v>0.1857951949066234</v>
       </c>
       <c r="AG78" t="inlineStr">
         <is>
@@ -13146,8 +13146,12 @@
           <t>CO 0238</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
+      <c r="AE79" t="n">
+        <v>11.50439948571642</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0.1032232231551585</v>
+      </c>
       <c r="AG79" t="inlineStr">
         <is>
           <t>Plantation Cycle Complete</t>
@@ -13304,10 +13308,10 @@
         </is>
       </c>
       <c r="AE80" t="n">
-        <v>8.52525320985386</v>
+        <v>9.812444305754283</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.3063250964943931</v>
+        <v>0.2317884106971112</v>
       </c>
       <c r="AG80" t="inlineStr">
         <is>
@@ -13465,10 +13469,10 @@
         </is>
       </c>
       <c r="AE81" t="n">
-        <v>8.405524895485105</v>
+        <v>12.29522617214011</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.3131426202110856</v>
+        <v>0.02351841615407289</v>
       </c>
       <c r="AG81" t="inlineStr">
         <is>
@@ -13626,10 +13630,10 @@
         </is>
       </c>
       <c r="AE82" t="n">
-        <v>8.116306749508503</v>
+        <v>11.55210400003298</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.3289928601773239</v>
+        <v>0.09897115233509381</v>
       </c>
       <c r="AG82" t="inlineStr">
         <is>
@@ -13787,10 +13791,10 @@
         </is>
       </c>
       <c r="AE83" t="n">
-        <v>8.191118592878572</v>
+        <v>12.0338158677548</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.3249755492750058</v>
+        <v>0.05300196023079234</v>
       </c>
       <c r="AG83" t="inlineStr">
         <is>
@@ -13948,10 +13952,10 @@
         </is>
       </c>
       <c r="AE84" t="n">
-        <v>8.25061992010999</v>
+        <v>11.90529825646816</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.3217246220843604</v>
+        <v>0.06597263936634268</v>
       </c>
       <c r="AG84" t="inlineStr">
         <is>
@@ -14109,10 +14113,10 @@
         </is>
       </c>
       <c r="AE85" t="n">
-        <v>7.464646477206387</v>
+        <v>11.1077948049842</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.3252767677161996</v>
+        <v>0.13654192729991</v>
       </c>
       <c r="AG85" t="inlineStr">
         <is>
@@ -14270,10 +14274,10 @@
         </is>
       </c>
       <c r="AE86" t="n">
-        <v>8.663375875338183</v>
+        <v>11.9130770693402</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.2983861575356027</v>
+        <v>0.06486610569452116</v>
       </c>
       <c r="AG86" t="inlineStr">
         <is>
@@ -14431,10 +14435,10 @@
         </is>
       </c>
       <c r="AE87" t="n">
-        <v>7.629634914395774</v>
+        <v>11.87185924845313</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.3440119202381468</v>
+        <v>0.06931317990591586</v>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
@@ -14592,10 +14596,10 @@
         </is>
       </c>
       <c r="AE88" t="n">
-        <v>8.65193798323293</v>
+        <v>10.91390455917488</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.2989596193179255</v>
+        <v>0.1518644095088964</v>
       </c>
       <c r="AG88" t="inlineStr">
         <is>
@@ -14910,10 +14914,10 @@
         </is>
       </c>
       <c r="AE90" t="n">
-        <v>8.491870923221303</v>
+        <v>10.76687516880977</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.3082597122483622</v>
+        <v>0.1635214902025505</v>
       </c>
       <c r="AG90" t="inlineStr">
         <is>
@@ -15071,10 +15075,10 @@
         </is>
       </c>
       <c r="AE91" t="n">
-        <v>1.820334797368581</v>
+        <v>11.69562203263921</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.5204855344398047</v>
+        <v>0.08602776953895977</v>
       </c>
       <c r="AG91" t="inlineStr">
         <is>
@@ -15232,10 +15236,10 @@
         </is>
       </c>
       <c r="AE92" t="n">
-        <v>8.38660080684641</v>
+        <v>10.81959175511795</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.3140696021844908</v>
+        <v>0.1577458978960594</v>
       </c>
       <c r="AG92" t="inlineStr">
         <is>
@@ -15393,10 +15397,10 @@
         </is>
       </c>
       <c r="AE93" t="n">
-        <v>8.837220768910566</v>
+        <v>12.1920977075644</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.2881812518927358</v>
+        <v>0.03585563976130461</v>
       </c>
       <c r="AG93" t="inlineStr">
         <is>
@@ -15554,10 +15558,10 @@
         </is>
       </c>
       <c r="AE94" t="n">
-        <v>8.087733019176657</v>
+        <v>11.51378151897825</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.3305456112636751</v>
+        <v>0.102337330018386</v>
       </c>
       <c r="AG94" t="inlineStr">
         <is>
@@ -15715,10 +15719,10 @@
         </is>
       </c>
       <c r="AE95" t="n">
-        <v>7.608194273013495</v>
+        <v>11.67481126944245</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.3547579193685644</v>
+        <v>0.08788964380945145</v>
       </c>
       <c r="AG95" t="inlineStr">
         <is>
@@ -15876,10 +15880,10 @@
         </is>
       </c>
       <c r="AE96" t="n">
-        <v>8.186891423688319</v>
+        <v>11.55194464469053</v>
       </c>
       <c r="AF96" t="n">
-        <v>0.3251858556958905</v>
+        <v>0.09846594886129682</v>
       </c>
       <c r="AG96" t="inlineStr">
         <is>
@@ -16037,10 +16041,10 @@
         </is>
       </c>
       <c r="AE97" t="n">
-        <v>8.577942862766637</v>
+        <v>11.66597592294212</v>
       </c>
       <c r="AF97" t="n">
-        <v>0.3033028930803584</v>
+        <v>0.08866115025805217</v>
       </c>
       <c r="AG97" t="inlineStr">
         <is>
@@ -16198,10 +16202,10 @@
         </is>
       </c>
       <c r="AE98" t="n">
-        <v>7.8991549586645</v>
+        <v>10.85501133739176</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.3404843789201596</v>
+        <v>0.156747840677371</v>
       </c>
       <c r="AG98" t="inlineStr">
         <is>
@@ -16359,10 +16363,10 @@
         </is>
       </c>
       <c r="AE99" t="n">
-        <v>7.506118042579036</v>
+        <v>10.76129163411142</v>
       </c>
       <c r="AF99" t="n">
-        <v>0.3596219483581548</v>
+        <v>0.1639700303625224</v>
       </c>
       <c r="AG99" t="inlineStr">
         <is>
@@ -16520,10 +16524,10 @@
         </is>
       </c>
       <c r="AE100" t="n">
-        <v>8.467460418163476</v>
+        <v>11.29250198998853</v>
       </c>
       <c r="AF100" t="n">
-        <v>0.3096568554332957</v>
+        <v>0.1214295675188558</v>
       </c>
       <c r="AG100" t="inlineStr">
         <is>
@@ -16681,10 +16685,10 @@
         </is>
       </c>
       <c r="AE101" t="n">
-        <v>8.237682048515433</v>
+        <v>10.56226646681618</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.3224352306037049</v>
+        <v>0.1789850468638872</v>
       </c>
       <c r="AG101" t="inlineStr">
         <is>
@@ -16842,10 +16846,10 @@
         </is>
       </c>
       <c r="AE102" t="n">
-        <v>8.50936060083003</v>
+        <v>10.57517525827372</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.307235483315681</v>
+        <v>0.177902849581206</v>
       </c>
       <c r="AG102" t="inlineStr">
         <is>
@@ -17003,10 +17007,10 @@
         </is>
       </c>
       <c r="AE103" t="n">
-        <v>7.903388245863329</v>
+        <v>11.83827761606035</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.3402796497927587</v>
+        <v>0.07259417290017503</v>
       </c>
       <c r="AG103" t="inlineStr">
         <is>
@@ -17164,10 +17168,10 @@
         </is>
       </c>
       <c r="AE104" t="n">
-        <v>7.851555941880966</v>
+        <v>10.70095435448359</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.3404236104790032</v>
+        <v>0.1681338159908138</v>
       </c>
       <c r="AG104" t="inlineStr">
         <is>
@@ -17325,10 +17329,10 @@
         </is>
       </c>
       <c r="AE105" t="n">
-        <v>8.200763838310424</v>
+        <v>11.66071956619388</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.3244513358710533</v>
+        <v>0.08919694662206122</v>
       </c>
       <c r="AG105" t="inlineStr">
         <is>
@@ -17486,10 +17490,10 @@
         </is>
       </c>
       <c r="AE106" t="n">
-        <v>8.373661840329724</v>
+        <v>11.84611003757381</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.3149253684772567</v>
+        <v>0.0718306837171097</v>
       </c>
       <c r="AG106" t="inlineStr">
         <is>
@@ -17647,10 +17651,10 @@
         </is>
       </c>
       <c r="AE107" t="n">
-        <v>7.915560471860523</v>
+        <v>11.44677189255792</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.3396448087507732</v>
+        <v>0.1082421794523685</v>
       </c>
       <c r="AG107" t="inlineStr">
         <is>
@@ -17808,10 +17812,10 @@
         </is>
       </c>
       <c r="AE108" t="n">
-        <v>8.565035262469316</v>
+        <v>11.91590503262964</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.3040992578996521</v>
+        <v>0.06502028726247398</v>
       </c>
       <c r="AG108" t="inlineStr">
         <is>
@@ -17969,10 +17973,10 @@
         </is>
       </c>
       <c r="AE109" t="n">
-        <v>8.342643211983891</v>
+        <v>11.68721304651917</v>
       </c>
       <c r="AF109" t="n">
-        <v>0.316653171924273</v>
+        <v>0.08678029565386146</v>
       </c>
       <c r="AG109" t="inlineStr">
         <is>
@@ -18130,10 +18134,10 @@
         </is>
       </c>
       <c r="AE110" t="n">
-        <v>8.297488599217461</v>
+        <v>10.86214148190646</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.3190986471878264</v>
+        <v>0.1561416605597538</v>
       </c>
       <c r="AG110" t="inlineStr">
         <is>
@@ -18291,10 +18295,10 @@
         </is>
       </c>
       <c r="AE111" t="n">
-        <v>8.30250764859333</v>
+        <v>10.48925986749056</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.3188752911701583</v>
+        <v>0.1843021079313132</v>
       </c>
       <c r="AG111" t="inlineStr">
         <is>
@@ -18452,10 +18456,10 @@
         </is>
       </c>
       <c r="AE112" t="n">
-        <v>8.371275491223649</v>
+        <v>11.55606379853928</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.3148640486710538</v>
+        <v>0.09827577061298703</v>
       </c>
       <c r="AG112" t="inlineStr">
         <is>
@@ -18613,10 +18617,10 @@
         </is>
       </c>
       <c r="AE113" t="n">
-        <v>7.883879291617051</v>
+        <v>11.2328386849133</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.3412921111850601</v>
+        <v>0.1261378545952009</v>
       </c>
       <c r="AG113" t="inlineStr">
         <is>
@@ -18774,10 +18778,10 @@
         </is>
       </c>
       <c r="AE114" t="n">
-        <v>7.99136049127121</v>
+        <v>12.12615842382949</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.3356674743650452</v>
+        <v>0.04321464789412421</v>
       </c>
       <c r="AG114" t="inlineStr">
         <is>
@@ -18935,10 +18939,10 @@
         </is>
       </c>
       <c r="AE115" t="n">
-        <v>8.155618178709636</v>
+        <v>12.09586939670807</v>
       </c>
       <c r="AF115" t="n">
-        <v>0.3269004478606606</v>
+        <v>0.04633622070320208</v>
       </c>
       <c r="AG115" t="inlineStr">
         <is>
@@ -19096,10 +19100,10 @@
         </is>
       </c>
       <c r="AE116" t="n">
-        <v>8.460135298114185</v>
+        <v>11.29122164397552</v>
       </c>
       <c r="AF116" t="n">
-        <v>0.3100693699479437</v>
+        <v>0.1214606401467648</v>
       </c>
       <c r="AG116" t="inlineStr">
         <is>
@@ -19257,10 +19261,10 @@
         </is>
       </c>
       <c r="AE117" t="n">
-        <v>8.048398935911907</v>
+        <v>11.88278737937953</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.3326496369698679</v>
+        <v>0.0682517526629393</v>
       </c>
       <c r="AG117" t="inlineStr">
         <is>
@@ -19418,10 +19422,10 @@
         </is>
       </c>
       <c r="AE118" t="n">
-        <v>8.500015231747845</v>
+        <v>11.45327003146232</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.3078081250702007</v>
+        <v>0.1076961788397051</v>
       </c>
       <c r="AG118" t="inlineStr">
         <is>
@@ -19579,10 +19583,10 @@
         </is>
       </c>
       <c r="AE119" t="n">
-        <v>26.65275234432168</v>
+        <v>11.85686395068598</v>
       </c>
       <c r="AF119" t="n">
-        <v>5.248082404741536e-166</v>
+        <v>0.07078599449137175</v>
       </c>
       <c r="AG119" t="inlineStr">
         <is>
@@ -19740,10 +19744,10 @@
         </is>
       </c>
       <c r="AE120" t="n">
-        <v>8.399746173339334</v>
+        <v>11.36027908121969</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.3134627102124373</v>
+        <v>0.1155661461204029</v>
       </c>
       <c r="AG120" t="inlineStr">
         <is>
@@ -19901,10 +19905,10 @@
         </is>
       </c>
       <c r="AE121" t="n">
-        <v>8.042401780278704</v>
+        <v>11.65414601914523</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.3329688719250778</v>
+        <v>0.08983059422873747</v>
       </c>
       <c r="AG121" t="inlineStr">
         <is>
@@ -20062,10 +20066,10 @@
         </is>
       </c>
       <c r="AE122" t="n">
-        <v>8.172151277816669</v>
+        <v>12.37411587062397</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.3259860689585101</v>
+        <v>0.01267983011637105</v>
       </c>
       <c r="AG122" t="inlineStr">
         <is>
@@ -20223,10 +20227,10 @@
         </is>
       </c>
       <c r="AE123" t="n">
-        <v>7.695039854882474</v>
+        <v>10.00562050630132</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.350945842295248</v>
+        <v>0.2186803840635264</v>
       </c>
       <c r="AG123" t="inlineStr">
         <is>
@@ -20384,10 +20388,10 @@
         </is>
       </c>
       <c r="AE124" t="n">
-        <v>8.409450912457206</v>
+        <v>11.07112216080593</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.3129233346260875</v>
+        <v>0.1396294998159127</v>
       </c>
       <c r="AG124" t="inlineStr">
         <is>
@@ -20545,10 +20549,10 @@
         </is>
       </c>
       <c r="AE125" t="n">
-        <v>3.161775696361079</v>
+        <v>11.97192051265379</v>
       </c>
       <c r="AF125" t="n">
-        <v>0.4937297972063686</v>
+        <v>0.05939484148342186</v>
       </c>
       <c r="AG125" t="inlineStr">
         <is>
@@ -20706,10 +20710,10 @@
         </is>
       </c>
       <c r="AE126" t="n">
-        <v>9.034608047163434</v>
+        <v>11.23292167912034</v>
       </c>
       <c r="AF126" t="n">
-        <v>0.2762502862108354</v>
+        <v>0.1263666064536837</v>
       </c>
       <c r="AG126" t="inlineStr">
         <is>
@@ -20867,10 +20871,10 @@
         </is>
       </c>
       <c r="AE127" t="n">
-        <v>8.085286388718504</v>
+        <v>11.23268153298446</v>
       </c>
       <c r="AF127" t="n">
-        <v>0.3306822264535148</v>
+        <v>0.1263636329967487</v>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
@@ -21028,10 +21032,10 @@
         </is>
       </c>
       <c r="AE128" t="n">
-        <v>8.336564285072036</v>
+        <v>10.5071836084089</v>
       </c>
       <c r="AF128" t="n">
-        <v>0.3169896258111938</v>
+        <v>0.1829076630274044</v>
       </c>
       <c r="AG128" t="inlineStr">
         <is>
@@ -21189,10 +21193,10 @@
         </is>
       </c>
       <c r="AE129" t="n">
-        <v>8.531829373207918</v>
+        <v>10.80848133816929</v>
       </c>
       <c r="AF129" t="n">
-        <v>0.3059603765260667</v>
+        <v>0.1603572522701377</v>
       </c>
       <c r="AG129" t="inlineStr">
         <is>
@@ -21350,10 +21354,10 @@
         </is>
       </c>
       <c r="AE130" t="n">
-        <v>7.56066043866408</v>
+        <v>11.98385463751523</v>
       </c>
       <c r="AF130" t="n">
-        <v>0.3576149936183492</v>
+        <v>0.05813337563054902</v>
       </c>
       <c r="AG130" t="inlineStr">
         <is>
@@ -21511,10 +21515,10 @@
         </is>
       </c>
       <c r="AE131" t="n">
-        <v>8.10177289553757</v>
+        <v>10.95510015691481</v>
       </c>
       <c r="AF131" t="n">
-        <v>0.3297666765565786</v>
+        <v>0.1481038666932399</v>
       </c>
       <c r="AG131" t="inlineStr">
         <is>
@@ -21672,10 +21676,10 @@
         </is>
       </c>
       <c r="AE132" t="n">
-        <v>9.301451381909027</v>
+        <v>11.74487439109933</v>
       </c>
       <c r="AF132" t="n">
-        <v>0.2587025732873444</v>
+        <v>0.08142404070952665</v>
       </c>
       <c r="AG132" t="inlineStr">
         <is>
@@ -21833,10 +21837,10 @@
         </is>
       </c>
       <c r="AE133" t="n">
-        <v>8.037635675626101</v>
+        <v>11.74751805061029</v>
       </c>
       <c r="AF133" t="n">
-        <v>0.3331904561680949</v>
+        <v>0.08104833028316243</v>
       </c>
       <c r="AG133" t="inlineStr">
         <is>
@@ -21994,10 +21998,10 @@
         </is>
       </c>
       <c r="AE134" t="n">
-        <v>8.530286361220712</v>
+        <v>11.32609055836953</v>
       </c>
       <c r="AF134" t="n">
-        <v>0.306087364318562</v>
+        <v>0.1185955218374732</v>
       </c>
       <c r="AG134" t="inlineStr">
         <is>
@@ -22155,10 +22159,10 @@
         </is>
       </c>
       <c r="AE135" t="n">
-        <v>7.194822325260311</v>
+        <v>10.20540047954511</v>
       </c>
       <c r="AF135" t="n">
-        <v>0.3751055957661351</v>
+        <v>0.2047349136409124</v>
       </c>
       <c r="AG135" t="inlineStr">
         <is>
@@ -22316,10 +22320,10 @@
         </is>
       </c>
       <c r="AE136" t="n">
-        <v>7.693734963001227</v>
+        <v>10.97360839930641</v>
       </c>
       <c r="AF136" t="n">
-        <v>0.3509932925957263</v>
+        <v>0.147226127591789</v>
       </c>
       <c r="AG136" t="inlineStr">
         <is>
@@ -22634,10 +22638,10 @@
         </is>
       </c>
       <c r="AE138" t="n">
-        <v>8.472101197000216</v>
+        <v>10.81380571329533</v>
       </c>
       <c r="AF138" t="n">
-        <v>0.3092965834775137</v>
+        <v>0.1597459915940833</v>
       </c>
       <c r="AG138" t="inlineStr">
         <is>
@@ -22795,10 +22799,10 @@
         </is>
       </c>
       <c r="AE139" t="n">
-        <v>8.008478371086396</v>
+        <v>11.58357341831439</v>
       </c>
       <c r="AF139" t="n">
-        <v>0.3347490181868744</v>
+        <v>0.09614902344867837</v>
       </c>
       <c r="AG139" t="inlineStr">
         <is>
@@ -22956,10 +22960,10 @@
         </is>
       </c>
       <c r="AE140" t="n">
-        <v>8.51969075304582</v>
+        <v>11.65722392404242</v>
       </c>
       <c r="AF140" t="n">
-        <v>0.3066897374351746</v>
+        <v>0.08897885046570178</v>
       </c>
       <c r="AG140" t="inlineStr">
         <is>
@@ -23117,10 +23121,10 @@
         </is>
       </c>
       <c r="AE141" t="n">
-        <v>8.406630126045586</v>
+        <v>11.81412915060062</v>
       </c>
       <c r="AF141" t="n">
-        <v>0.3129418155189058</v>
+        <v>0.07490705342266633</v>
       </c>
       <c r="AG141" t="inlineStr">
         <is>
@@ -23278,10 +23282,10 @@
         </is>
       </c>
       <c r="AE142" t="n">
-        <v>8.031318995664083</v>
+        <v>11.85066818685232</v>
       </c>
       <c r="AF142" t="n">
-        <v>0.333505474490158</v>
+        <v>0.0712424818320663</v>
       </c>
       <c r="AG142" t="inlineStr">
         <is>
@@ -23439,10 +23443,10 @@
         </is>
       </c>
       <c r="AE143" t="n">
-        <v>7.840487813618918</v>
+        <v>11.84888424879832</v>
       </c>
       <c r="AF143" t="n">
-        <v>0.3435221185539308</v>
+        <v>0.07150653225234851</v>
       </c>
       <c r="AG143" t="inlineStr">
         <is>
@@ -23600,10 +23604,10 @@
         </is>
       </c>
       <c r="AE144" t="n">
-        <v>8.929393075682455</v>
+        <v>11.10401032409967</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.2826526602029562</v>
+        <v>0.1369613008728972</v>
       </c>
       <c r="AG144" t="inlineStr">
         <is>
@@ -23761,10 +23765,10 @@
         </is>
       </c>
       <c r="AE145" t="n">
-        <v>7.897563985489532</v>
+        <v>11.81887428542715</v>
       </c>
       <c r="AF145" t="n">
-        <v>0.3405790817892062</v>
+        <v>0.07444519858030289</v>
       </c>
       <c r="AG145" t="inlineStr">
         <is>
@@ -23922,10 +23926,10 @@
         </is>
       </c>
       <c r="AE146" t="n">
-        <v>8.136073739485793</v>
+        <v>11.92475101544248</v>
       </c>
       <c r="AF146" t="n">
-        <v>0.3279539112176049</v>
+        <v>0.06413082406459279</v>
       </c>
       <c r="AG146" t="inlineStr">
         <is>
@@ -24083,10 +24087,10 @@
         </is>
       </c>
       <c r="AE147" t="n">
-        <v>8.023528464133726</v>
+        <v>9.059949540453113</v>
       </c>
       <c r="AF147" t="n">
-        <v>0.3339529314001441</v>
+        <v>0.2795762561026141</v>
       </c>
       <c r="AG147" t="inlineStr">
         <is>
@@ -24244,10 +24248,10 @@
         </is>
       </c>
       <c r="AE148" t="n">
-        <v>8.093288244006756</v>
+        <v>11.72606757920362</v>
       </c>
       <c r="AF148" t="n">
-        <v>0.3302503984324904</v>
+        <v>0.08320418675199229</v>
       </c>
       <c r="AG148" t="inlineStr">
         <is>
@@ -24405,10 +24409,10 @@
         </is>
       </c>
       <c r="AE149" t="n">
-        <v>8.142274498670353</v>
+        <v>11.70789992971255</v>
       </c>
       <c r="AF149" t="n">
-        <v>0.3276178840536406</v>
+        <v>0.08482935237386374</v>
       </c>
       <c r="AG149" t="inlineStr">
         <is>
@@ -24566,10 +24570,10 @@
         </is>
       </c>
       <c r="AE150" t="n">
-        <v>8.020548531156374</v>
+        <v>11.87843451569158</v>
       </c>
       <c r="AF150" t="n">
-        <v>0.3341262501047852</v>
+        <v>0.06860933798762978</v>
       </c>
       <c r="AG150" t="inlineStr">
         <is>
@@ -24727,10 +24731,10 @@
         </is>
       </c>
       <c r="AE151" t="n">
-        <v>8.503237249292313</v>
+        <v>11.76801215911608</v>
       </c>
       <c r="AF151" t="n">
-        <v>0.3075299275921665</v>
+        <v>0.07926499733729893</v>
       </c>
       <c r="AG151" t="inlineStr">
         <is>
@@ -24888,10 +24892,10 @@
         </is>
       </c>
       <c r="AE152" t="n">
-        <v>8.42053000557946</v>
+        <v>11.34488241016311</v>
       </c>
       <c r="AF152" t="n">
-        <v>0.3121785122409537</v>
+        <v>0.1167692237957089</v>
       </c>
       <c r="AG152" t="inlineStr">
         <is>
@@ -25049,10 +25053,10 @@
         </is>
       </c>
       <c r="AE153" t="n">
-        <v>8.314493298214961</v>
+        <v>11.3705985210839</v>
       </c>
       <c r="AF153" t="n">
-        <v>0.3181979207056549</v>
+        <v>0.1145996233571093</v>
       </c>
       <c r="AG153" t="inlineStr">
         <is>
@@ -25210,10 +25214,10 @@
         </is>
       </c>
       <c r="AE154" t="n">
-        <v>7.942364583898534</v>
+        <v>11.85604595587122</v>
       </c>
       <c r="AF154" t="n">
-        <v>0.3382367366686653</v>
+        <v>0.07087535852740069</v>
       </c>
       <c r="AG154" t="inlineStr">
         <is>
@@ -25371,10 +25375,10 @@
         </is>
       </c>
       <c r="AE155" t="n">
-        <v>8.871415914776634</v>
+        <v>11.30692987299892</v>
       </c>
       <c r="AF155" t="n">
-        <v>0.2861256207038836</v>
+        <v>0.1201215005772872</v>
       </c>
       <c r="AG155" t="inlineStr">
         <is>
@@ -25532,10 +25536,10 @@
         </is>
       </c>
       <c r="AE156" t="n">
-        <v>8.140971007527181</v>
+        <v>11.35181492008003</v>
       </c>
       <c r="AF156" t="n">
-        <v>0.3276909128986535</v>
+        <v>0.1163811787803248</v>
       </c>
       <c r="AG156" t="inlineStr">
         <is>
@@ -25693,10 +25697,10 @@
         </is>
       </c>
       <c r="AE157" t="n">
-        <v>8.543024895706981</v>
+        <v>11.46396272357771</v>
       </c>
       <c r="AF157" t="n">
-        <v>0.3051871886286222</v>
+        <v>0.1067583334419749</v>
       </c>
       <c r="AG157" t="inlineStr">
         <is>
@@ -25854,10 +25858,10 @@
         </is>
       </c>
       <c r="AE158" t="n">
-        <v>8.525707955633168</v>
+        <v>11.27503473684016</v>
       </c>
       <c r="AF158" t="n">
-        <v>0.3063278491263223</v>
+        <v>0.1227249758365732</v>
       </c>
       <c r="AG158" t="inlineStr">
         <is>
@@ -26015,10 +26019,10 @@
         </is>
       </c>
       <c r="AE159" t="n">
-        <v>0</v>
+        <v>11.9678815078286</v>
       </c>
       <c r="AF159" t="n">
-        <v>0.3388302402727666</v>
+        <v>0.0598053928228466</v>
       </c>
       <c r="AG159" t="inlineStr">
         <is>
@@ -26176,10 +26180,10 @@
         </is>
       </c>
       <c r="AE160" t="n">
-        <v>8.621977502554211</v>
+        <v>12.01573454830311</v>
       </c>
       <c r="AF160" t="n">
-        <v>0.3007560557771988</v>
+        <v>0.05484832010265516</v>
       </c>
       <c r="AG160" t="inlineStr">
         <is>
@@ -26337,10 +26341,10 @@
         </is>
       </c>
       <c r="AE161" t="n">
-        <v>8.905516439879577</v>
+        <v>11.79198557654163</v>
       </c>
       <c r="AF161" t="n">
-        <v>0.284087942019555</v>
+        <v>0.07698599541449723</v>
       </c>
       <c r="AG161" t="inlineStr">
         <is>
@@ -26498,10 +26502,10 @@
         </is>
       </c>
       <c r="AE162" t="n">
-        <v>7.297372874406197</v>
+        <v>11.01223805593986</v>
       </c>
       <c r="AF162" t="n">
-        <v>0.3689315082435361</v>
+        <v>0.1441859316542343</v>
       </c>
       <c r="AG162" t="inlineStr">
         <is>
@@ -26659,10 +26663,10 @@
         </is>
       </c>
       <c r="AE163" t="n">
-        <v>1.842954534979828</v>
+        <v>11.91155376981902</v>
       </c>
       <c r="AF163" t="n">
-        <v>0.3599153362029825</v>
+        <v>0.06526190149188593</v>
       </c>
       <c r="AG163" t="inlineStr">
         <is>
@@ -26820,10 +26824,10 @@
         </is>
       </c>
       <c r="AE164" t="n">
-        <v>31.002099474198</v>
+        <v>12.0491902452152</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>0.05146435373376972</v>
       </c>
       <c r="AG164" t="inlineStr">
         <is>
@@ -26981,10 +26985,10 @@
         </is>
       </c>
       <c r="AE165" t="n">
-        <v>7.835543097389287</v>
+        <v>11.7805857649117</v>
       </c>
       <c r="AF165" t="n">
-        <v>0.3437902208620141</v>
+        <v>0.07800244699311799</v>
       </c>
       <c r="AG165" t="inlineStr">
         <is>
@@ -27142,10 +27146,10 @@
         </is>
       </c>
       <c r="AE166" t="n">
-        <v>7.944002760581697</v>
+        <v>12.02842862451109</v>
       </c>
       <c r="AF166" t="n">
-        <v>0.338146885533036</v>
+        <v>0.0535758916105321</v>
       </c>
       <c r="AG166" t="inlineStr">
         <is>
@@ -27303,10 +27307,10 @@
         </is>
       </c>
       <c r="AE167" t="n">
-        <v>8.019362492924467</v>
+        <v>12.31344817615584</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.3341895017909793</v>
+        <v>0.02102331657723136</v>
       </c>
       <c r="AG167" t="inlineStr">
         <is>
@@ -27464,10 +27468,10 @@
         </is>
       </c>
       <c r="AE168" t="n">
-        <v>8.020400889053372</v>
+        <v>11.60998633819616</v>
       </c>
       <c r="AF168" t="n">
-        <v>0.3341261349779343</v>
+        <v>0.0938199721815285</v>
       </c>
       <c r="AG168" t="inlineStr">
         <is>
@@ -27625,10 +27629,10 @@
         </is>
       </c>
       <c r="AE169" t="n">
-        <v>7.870376018370933</v>
+        <v>11.75620131880522</v>
       </c>
       <c r="AF169" t="n">
-        <v>0.341832551542482</v>
+        <v>0.08038247815741191</v>
       </c>
       <c r="AG169" t="inlineStr">
         <is>
@@ -27786,10 +27790,10 @@
         </is>
       </c>
       <c r="AE170" t="n">
-        <v>7.928910278860495</v>
+        <v>11.60346235974078</v>
       </c>
       <c r="AF170" t="n">
-        <v>0.338948720482491</v>
+        <v>0.09442064325741756</v>
       </c>
       <c r="AG170" t="inlineStr">
         <is>
@@ -27947,10 +27951,10 @@
         </is>
       </c>
       <c r="AE171" t="n">
-        <v>7.891780626640352</v>
+        <v>11.50228555737345</v>
       </c>
       <c r="AF171" t="n">
-        <v>0.340883123698289</v>
+        <v>0.1033701722765602</v>
       </c>
       <c r="AG171" t="inlineStr">
         <is>
@@ -28108,10 +28112,10 @@
         </is>
       </c>
       <c r="AE172" t="n">
-        <v>8.020411836268829</v>
+        <v>11.67540818016614</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.3341329386890271</v>
+        <v>0.08787701379433339</v>
       </c>
       <c r="AG172" t="inlineStr">
         <is>
@@ -28269,10 +28273,10 @@
         </is>
       </c>
       <c r="AE173" t="n">
-        <v>7.944470954422859</v>
+        <v>11.50018194352916</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.3381340949161453</v>
+        <v>0.1034337023264937</v>
       </c>
       <c r="AG173" t="inlineStr">
         <is>
@@ -28430,10 +28434,10 @@
         </is>
       </c>
       <c r="AE174" t="n">
-        <v>6.926462191069556</v>
+        <v>10.7018294181911</v>
       </c>
       <c r="AF174" t="n">
-        <v>0.3873593854422334</v>
+        <v>0.1684732884672196</v>
       </c>
       <c r="AG174" t="inlineStr">
         <is>
@@ -28591,10 +28595,10 @@
         </is>
       </c>
       <c r="AE175" t="n">
-        <v>0.8965800086108129</v>
+        <v>11.31464692411665</v>
       </c>
       <c r="AF175" t="n">
-        <v>0.4927351819367805</v>
+        <v>0.1193645557718365</v>
       </c>
       <c r="AG175" t="inlineStr">
         <is>
@@ -28752,10 +28756,10 @@
         </is>
       </c>
       <c r="AE176" t="n">
-        <v>7.80761499731794</v>
+        <v>11.79226680893923</v>
       </c>
       <c r="AF176" t="n">
-        <v>0.3399292489573993</v>
+        <v>0.07697612083672215</v>
       </c>
       <c r="AG176" t="inlineStr">
         <is>
@@ -28913,10 +28917,10 @@
         </is>
       </c>
       <c r="AE177" t="n">
-        <v>7.805903043787817</v>
+        <v>12.05840219942594</v>
       </c>
       <c r="AF177" t="n">
-        <v>0.3453121306861454</v>
+        <v>0.0503862567799493</v>
       </c>
       <c r="AG177" t="inlineStr">
         <is>
@@ -29074,10 +29078,10 @@
         </is>
       </c>
       <c r="AE178" t="n">
-        <v>7.866803362586927</v>
+        <v>11.82157864136278</v>
       </c>
       <c r="AF178" t="n">
-        <v>0.3421771853623321</v>
+        <v>0.07418237077998505</v>
       </c>
       <c r="AG178" t="inlineStr">
         <is>
@@ -29235,10 +29239,10 @@
         </is>
       </c>
       <c r="AE179" t="n">
-        <v>7.780740661423561</v>
+        <v>11.57137270036324</v>
       </c>
       <c r="AF179" t="n">
-        <v>0.3466022374274682</v>
+        <v>0.09728933035481475</v>
       </c>
       <c r="AG179" t="inlineStr">
         <is>
@@ -29396,10 +29400,10 @@
         </is>
       </c>
       <c r="AE180" t="n">
-        <v>8.366951275970967</v>
+        <v>10.87314094078966</v>
       </c>
       <c r="AF180" t="n">
-        <v>0.3152919264916352</v>
+        <v>0.1553312557365744</v>
       </c>
       <c r="AG180" t="inlineStr">
         <is>
@@ -29557,10 +29561,10 @@
         </is>
       </c>
       <c r="AE181" t="n">
-        <v>8.604310482501857</v>
+        <v>11.82667984007416</v>
       </c>
       <c r="AF181" t="n">
-        <v>0.3018400124096154</v>
+        <v>0.07355926558930807</v>
       </c>
       <c r="AG181" t="inlineStr">
         <is>
@@ -29718,10 +29722,10 @@
         </is>
       </c>
       <c r="AE182" t="n">
-        <v>9.020746117205473</v>
+        <v>12.10686401169647</v>
       </c>
       <c r="AF182" t="n">
-        <v>0.2771008702386487</v>
+        <v>0.04526925397518129</v>
       </c>
       <c r="AG182" t="inlineStr">
         <is>
@@ -29879,10 +29883,10 @@
         </is>
       </c>
       <c r="AE183" t="n">
-        <v>0.6206967670443799</v>
+        <v>11.08607619897972</v>
       </c>
       <c r="AF183" t="n">
-        <v>0.3316429090300029</v>
+        <v>0.1375151027001283</v>
       </c>
       <c r="AG183" t="inlineStr">
         <is>
@@ -30040,10 +30044,10 @@
         </is>
       </c>
       <c r="AE184" t="n">
-        <v>8.202236441849255</v>
+        <v>11.89100723852191</v>
       </c>
       <c r="AF184" t="n">
-        <v>0.3243696929126718</v>
+        <v>0.06735201686914964</v>
       </c>
       <c r="AG184" t="inlineStr">
         <is>
@@ -30201,10 +30205,10 @@
         </is>
       </c>
       <c r="AE185" t="n">
-        <v>7.70558137169933</v>
+        <v>11.14027125356919</v>
       </c>
       <c r="AF185" t="n">
-        <v>0.3504045957541421</v>
+        <v>0.1339084965940849</v>
       </c>
       <c r="AG185" t="inlineStr">
         <is>
@@ -30362,10 +30366,10 @@
         </is>
       </c>
       <c r="AE186" t="n">
-        <v>7.916083349697152</v>
+        <v>11.86049925001745</v>
       </c>
       <c r="AF186" t="n">
-        <v>0.3396183367488002</v>
+        <v>0.07040099604223898</v>
       </c>
       <c r="AG186" t="inlineStr">
         <is>
@@ -30523,10 +30527,10 @@
         </is>
       </c>
       <c r="AE187" t="n">
-        <v>7.000665803776868</v>
+        <v>11.14967341001362</v>
       </c>
       <c r="AF187" t="n">
-        <v>0.3839275819094272</v>
+        <v>0.1326542159126962</v>
       </c>
       <c r="AG187" t="inlineStr">
         <is>
@@ -30684,10 +30688,10 @@
         </is>
       </c>
       <c r="AE188" t="n">
-        <v>7.744908954955987</v>
+        <v>12.00859776582856</v>
       </c>
       <c r="AF188" t="n">
-        <v>0.3481767956764191</v>
+        <v>0.05564608247816856</v>
       </c>
       <c r="AG188" t="inlineStr">
         <is>
@@ -30845,10 +30849,10 @@
         </is>
       </c>
       <c r="AE189" t="n">
-        <v>7.886213707570987</v>
+        <v>11.20557478993091</v>
       </c>
       <c r="AF189" t="n">
-        <v>0.3411720306981874</v>
+        <v>0.1286598706227388</v>
       </c>
       <c r="AG189" t="inlineStr">
         <is>
@@ -31006,10 +31010,10 @@
         </is>
       </c>
       <c r="AE190" t="n">
-        <v>7.921677073741931</v>
+        <v>11.6486526483764</v>
       </c>
       <c r="AF190" t="n">
-        <v>0.3393261308465171</v>
+        <v>0.09023416898141259</v>
       </c>
       <c r="AG190" t="inlineStr">
         <is>
@@ -31167,10 +31171,10 @@
         </is>
       </c>
       <c r="AE191" t="n">
-        <v>8.570150334344252</v>
+        <v>12.04323489684392</v>
       </c>
       <c r="AF191" t="n">
-        <v>0.3038034743788419</v>
+        <v>0.05206447425587057</v>
       </c>
       <c r="AG191" t="inlineStr">
         <is>
@@ -31328,10 +31332,10 @@
         </is>
       </c>
       <c r="AE192" t="n">
-        <v>7.895738434922432</v>
+        <v>11.90480657484593</v>
       </c>
       <c r="AF192" t="n">
-        <v>0.340677365056359</v>
+        <v>0.06607326012703996</v>
       </c>
       <c r="AG192" t="inlineStr">
         <is>
@@ -31489,10 +31493,10 @@
         </is>
       </c>
       <c r="AE193" t="n">
-        <v>7.804846509599306</v>
+        <v>10.85125185377586</v>
       </c>
       <c r="AF193" t="n">
-        <v>0.3453555037751461</v>
+        <v>0.1569062955807302</v>
       </c>
       <c r="AG193" t="inlineStr">
         <is>
@@ -31650,10 +31654,10 @@
         </is>
       </c>
       <c r="AE194" t="n">
-        <v>8.012247330556134</v>
+        <v>12.17540075918969</v>
       </c>
       <c r="AF194" t="n">
-        <v>0.3345645167794062</v>
+        <v>0.03770763428543859</v>
       </c>
       <c r="AG194" t="inlineStr">
         <is>
@@ -31811,10 +31815,10 @@
         </is>
       </c>
       <c r="AE195" t="n">
-        <v>8.210285116394997</v>
+        <v>11.12344682838265</v>
       </c>
       <c r="AF195" t="n">
-        <v>0.3238200200092598</v>
+        <v>0.1353298207266757</v>
       </c>
       <c r="AG195" t="inlineStr">
         <is>
@@ -31972,10 +31976,10 @@
         </is>
       </c>
       <c r="AE196" t="n">
-        <v>7.738747267385757</v>
+        <v>12.1551230409188</v>
       </c>
       <c r="AF196" t="n">
-        <v>0.3487166034646057</v>
+        <v>0.04003765362895544</v>
       </c>
       <c r="AG196" t="inlineStr">
         <is>
@@ -32133,10 +32137,10 @@
         </is>
       </c>
       <c r="AE197" t="n">
-        <v>8.029592690397617</v>
+        <v>12.01977353485188</v>
       </c>
       <c r="AF197" t="n">
-        <v>0.33364496857718</v>
+        <v>0.05439036913487248</v>
       </c>
       <c r="AG197" t="inlineStr">
         <is>
@@ -32294,10 +32298,10 @@
         </is>
       </c>
       <c r="AE198" t="n">
-        <v>7.846123685674056</v>
+        <v>11.97531650605281</v>
       </c>
       <c r="AF198" t="n">
-        <v>0.3432133188580949</v>
+        <v>0.05902883672337222</v>
       </c>
       <c r="AG198" t="inlineStr">
         <is>
@@ -32455,10 +32459,10 @@
         </is>
       </c>
       <c r="AE199" t="n">
-        <v>8.490819286461857</v>
+        <v>12.21257328219289</v>
       </c>
       <c r="AF199" t="n">
-        <v>0.3083313987598891</v>
+        <v>0.03349850563042728</v>
       </c>
       <c r="AG199" t="inlineStr">
         <is>
@@ -32616,10 +32620,10 @@
         </is>
       </c>
       <c r="AE200" t="n">
-        <v>8.991085277749884</v>
+        <v>11.92959291346558</v>
       </c>
       <c r="AF200" t="n">
-        <v>0.2788895716817728</v>
+        <v>0.0636099768501273</v>
       </c>
       <c r="AG200" t="inlineStr">
         <is>
@@ -32777,10 +32781,10 @@
         </is>
       </c>
       <c r="AE201" t="n">
-        <v>7.816974495628653</v>
+        <v>11.88447758770627</v>
       </c>
       <c r="AF201" t="n">
-        <v>0.3447469979385092</v>
+        <v>0.06811028281406764</v>
       </c>
       <c r="AG201" t="inlineStr">
         <is>
@@ -32938,10 +32942,10 @@
         </is>
       </c>
       <c r="AE202" t="n">
-        <v>59.14556588958904</v>
+        <v>11.76038384029186</v>
       </c>
       <c r="AF202" t="n">
-        <v>0</v>
+        <v>0.0798994783359976</v>
       </c>
       <c r="AG202" t="inlineStr">
         <is>
@@ -33099,10 +33103,10 @@
         </is>
       </c>
       <c r="AE203" t="n">
-        <v>7.84913109807171</v>
+        <v>11.91322268745116</v>
       </c>
       <c r="AF203" t="n">
-        <v>0.3430912705610547</v>
+        <v>0.06526846640145573</v>
       </c>
       <c r="AG203" t="inlineStr">
         <is>
@@ -33260,10 +33264,10 @@
         </is>
       </c>
       <c r="AE204" t="n">
-        <v>7.734118133838593</v>
+        <v>11.40238116091995</v>
       </c>
       <c r="AF204" t="n">
-        <v>0.3489649278646665</v>
+        <v>0.1120809259885689</v>
       </c>
       <c r="AG204" t="inlineStr">
         <is>
@@ -33421,10 +33425,10 @@
         </is>
       </c>
       <c r="AE205" t="n">
-        <v>7.840722745639147</v>
+        <v>11.9697455363861</v>
       </c>
       <c r="AF205" t="n">
-        <v>0.3435225244355481</v>
+        <v>0.0595948896715023</v>
       </c>
       <c r="AG205" t="inlineStr">
         <is>
@@ -33582,10 +33586,10 @@
         </is>
       </c>
       <c r="AE206" t="n">
-        <v>8.864580521972089</v>
+        <v>12.02233601155855</v>
       </c>
       <c r="AF206" t="n">
-        <v>0.2865477298854845</v>
+        <v>0.05410467560812875</v>
       </c>
       <c r="AG206" t="inlineStr">
         <is>
@@ -33743,10 +33747,10 @@
         </is>
       </c>
       <c r="AE207" t="n">
-        <v>7.911408456243969</v>
+        <v>12.14504780885716</v>
       </c>
       <c r="AF207" t="n">
-        <v>0.3398613682965642</v>
+        <v>0.04110758029925377</v>
       </c>
       <c r="AG207" t="inlineStr">
         <is>
@@ -34061,10 +34065,10 @@
         </is>
       </c>
       <c r="AE209" t="n">
-        <v>7.748706380296817</v>
+        <v>11.64173349321866</v>
       </c>
       <c r="AF209" t="n">
-        <v>0.3482265343195833</v>
+        <v>0.09089903734765391</v>
       </c>
       <c r="AG209" t="inlineStr">
         <is>
@@ -34222,10 +34226,10 @@
         </is>
       </c>
       <c r="AE210" t="n">
-        <v>7.677830959720922</v>
+        <v>11.69757157191749</v>
       </c>
       <c r="AF210" t="n">
-        <v>0.3518173885132574</v>
+        <v>0.08581854897276452</v>
       </c>
       <c r="AG210" t="inlineStr">
         <is>
@@ -34383,10 +34387,10 @@
         </is>
       </c>
       <c r="AE211" t="n">
-        <v>7.069852757894537</v>
+        <v>10.19892248795518</v>
       </c>
       <c r="AF211" t="n">
-        <v>0.3808603945756286</v>
+        <v>0.2037733727766357</v>
       </c>
       <c r="AG211" t="inlineStr">
         <is>
@@ -34544,10 +34548,10 @@
         </is>
       </c>
       <c r="AE212" t="n">
-        <v>8.247268342906363</v>
+        <v>9.067244450561356</v>
       </c>
       <c r="AF212" t="n">
-        <v>0.3219058557022177</v>
+        <v>0.2786696550390035</v>
       </c>
       <c r="AG212" t="inlineStr">
         <is>
@@ -34705,10 +34709,10 @@
         </is>
       </c>
       <c r="AE213" t="n">
-        <v>7.778825021957029</v>
+        <v>12.11394421899349</v>
       </c>
       <c r="AF213" t="n">
-        <v>0.3467002753431292</v>
+        <v>0.04455659510231362</v>
       </c>
       <c r="AG213" t="inlineStr">
         <is>
@@ -34866,10 +34870,10 @@
         </is>
       </c>
       <c r="AE214" t="n">
-        <v>7.410657957538541</v>
+        <v>12.33956350137542</v>
       </c>
       <c r="AF214" t="n">
-        <v>0.3648540459296937</v>
+        <v>0.01714822658960003</v>
       </c>
       <c r="AG214" t="inlineStr">
         <is>
@@ -35027,10 +35031,10 @@
         </is>
       </c>
       <c r="AE215" t="n">
-        <v>6.597352952108661</v>
+        <v>11.94553248173032</v>
       </c>
       <c r="AF215" t="n">
-        <v>0.4012791826533074</v>
+        <v>0.06170550044935111</v>
       </c>
       <c r="AG215" t="inlineStr">
         <is>
@@ -35188,10 +35192,10 @@
         </is>
       </c>
       <c r="AE216" t="n">
-        <v>8.463491716363771</v>
+        <v>10.90864315609083</v>
       </c>
       <c r="AF216" t="n">
-        <v>0.3093334735402003</v>
+        <v>0.1515451993017065</v>
       </c>
       <c r="AG216" t="inlineStr">
         <is>
@@ -35349,10 +35353,10 @@
         </is>
       </c>
       <c r="AE217" t="n">
-        <v>33.61941957870519</v>
+        <v>11.67631873890812</v>
       </c>
       <c r="AF217" t="n">
-        <v>0</v>
+        <v>0.08757298305604608</v>
       </c>
       <c r="AG217" t="inlineStr">
         <is>
@@ -35510,10 +35514,10 @@
         </is>
       </c>
       <c r="AE218" t="n">
-        <v>8.181931845093342</v>
+        <v>12.24014393242006</v>
       </c>
       <c r="AF218" t="n">
-        <v>0.3223899088020455</v>
+        <v>0.02998569878286932</v>
       </c>
       <c r="AG218" t="inlineStr">
         <is>
@@ -35671,10 +35675,10 @@
         </is>
       </c>
       <c r="AE219" t="n">
-        <v>7.291358794909579</v>
+        <v>11.02506832526335</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.3700040807855313</v>
+        <v>0.1433404526732729</v>
       </c>
       <c r="AG219" t="inlineStr">
         <is>
@@ -35832,10 +35836,10 @@
         </is>
       </c>
       <c r="AE220" t="n">
-        <v>7.781894041718927</v>
+        <v>12.38869144886991</v>
       </c>
       <c r="AF220" t="n">
-        <v>0.3464936749304939</v>
+        <v>0.009422894621149997</v>
       </c>
       <c r="AG220" t="inlineStr">
         <is>
@@ -35993,10 +35997,10 @@
         </is>
       </c>
       <c r="AE221" t="n">
-        <v>8.035344304197304</v>
+        <v>12.10119201467321</v>
       </c>
       <c r="AF221" t="n">
-        <v>0.3333301549137401</v>
+        <v>0.04587269205763794</v>
       </c>
       <c r="AG221" t="inlineStr">
         <is>
@@ -36154,10 +36158,10 @@
         </is>
       </c>
       <c r="AE222" t="n">
-        <v>9.12903163718217</v>
+        <v>10.52648855403823</v>
       </c>
       <c r="AF222" t="n">
-        <v>0.2703820628034687</v>
+        <v>0.1815047708062225</v>
       </c>
       <c r="AG222" t="inlineStr">
         <is>
@@ -36315,10 +36319,10 @@
         </is>
       </c>
       <c r="AE223" t="n">
-        <v>8.887806687543046</v>
+        <v>10.3790340792221</v>
       </c>
       <c r="AF223" t="n">
-        <v>0.285141142208876</v>
+        <v>0.1919507268127096</v>
       </c>
       <c r="AG223" t="inlineStr">
         <is>
@@ -36476,10 +36480,10 @@
         </is>
       </c>
       <c r="AE224" t="n">
-        <v>8.324979709765731</v>
+        <v>11.37120022542263</v>
       </c>
       <c r="AF224" t="n">
-        <v>0.3176261450772896</v>
+        <v>0.1147134603024665</v>
       </c>
       <c r="AG224" t="inlineStr">
         <is>
@@ -36637,10 +36641,10 @@
         </is>
       </c>
       <c r="AE225" t="n">
-        <v>7.505753903319766</v>
+        <v>10.34711895817077</v>
       </c>
       <c r="AF225" t="n">
-        <v>0.359977213811901</v>
+        <v>0.1946797087636893</v>
       </c>
       <c r="AG225" t="inlineStr">
         <is>
@@ -36797,8 +36801,12 @@
           <t>CO 0238</t>
         </is>
       </c>
-      <c r="AE226" t="inlineStr"/>
-      <c r="AF226" t="inlineStr"/>
+      <c r="AE226" t="n">
+        <v>11.48008826238505</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0.1048940651773105</v>
+      </c>
       <c r="AG226" t="inlineStr">
         <is>
           <t>Plantation Cycle Complete</t>
@@ -36955,10 +36963,10 @@
         </is>
       </c>
       <c r="AE227" t="n">
-        <v>10.9165216628439</v>
+        <v>11.61080059987529</v>
       </c>
       <c r="AF227" t="n">
-        <v>0.1441369144539001</v>
+        <v>0.09368382307122269</v>
       </c>
       <c r="AG227" t="inlineStr">
         <is>
@@ -37116,10 +37124,10 @@
         </is>
       </c>
       <c r="AE228" t="n">
-        <v>11.0494359452345</v>
+        <v>12.06665369275122</v>
       </c>
       <c r="AF228" t="n">
-        <v>0.1334121501180657</v>
+        <v>0.04962284961139242</v>
       </c>
       <c r="AG228" t="inlineStr">
         <is>
@@ -37277,10 +37285,10 @@
         </is>
       </c>
       <c r="AE229" t="n">
-        <v>10.88779721493756</v>
+        <v>11.98856557382573</v>
       </c>
       <c r="AF229" t="n">
-        <v>0.1464851114775175</v>
+        <v>0.05772436558497024</v>
       </c>
       <c r="AG229" t="inlineStr">
         <is>
@@ -37438,10 +37446,10 @@
         </is>
       </c>
       <c r="AE230" t="n">
-        <v>10.11783905469002</v>
+        <v>11.12067027490521</v>
       </c>
       <c r="AF230" t="n">
-        <v>0.2032489432405981</v>
+        <v>0.1353243413705181</v>
       </c>
       <c r="AG230" t="inlineStr">
         <is>
@@ -37599,10 +37607,10 @@
         </is>
       </c>
       <c r="AE231" t="n">
-        <v>10.27205434535251</v>
+        <v>11.62374108277377</v>
       </c>
       <c r="AF231" t="n">
-        <v>0.1934741186888447</v>
+        <v>0.09252433986570392</v>
       </c>
       <c r="AG231" t="inlineStr">
         <is>
@@ -37760,10 +37768,10 @@
         </is>
       </c>
       <c r="AE232" t="n">
-        <v>10.32155186221415</v>
+        <v>11.64835928861714</v>
       </c>
       <c r="AF232" t="n">
-        <v>0.1899099410037031</v>
+        <v>0.09032335526439123</v>
       </c>
       <c r="AG232" t="inlineStr">
         <is>
@@ -37921,10 +37929,10 @@
         </is>
       </c>
       <c r="AE233" t="n">
-        <v>184.883196739565</v>
+        <v>11.71733497203993</v>
       </c>
       <c r="AF233" t="n">
-        <v>0.2530522318936378</v>
+        <v>0.08393578877073839</v>
       </c>
       <c r="AG233" t="inlineStr">
         <is>
@@ -38082,10 +38090,10 @@
         </is>
       </c>
       <c r="AE234" t="n">
-        <v>9.84998946155264</v>
+        <v>12.00705468812691</v>
       </c>
       <c r="AF234" t="n">
-        <v>0.2233512104473864</v>
+        <v>0.0558345291789879</v>
       </c>
       <c r="AG234" t="inlineStr">
         <is>
@@ -38243,10 +38251,10 @@
         </is>
       </c>
       <c r="AE235" t="n">
-        <v>10.06220924848797</v>
+        <v>11.45020699350306</v>
       </c>
       <c r="AF235" t="n">
-        <v>0.2085778379519053</v>
+        <v>0.1079503328648579</v>
       </c>
       <c r="AG235" t="inlineStr">
         <is>
@@ -38404,10 +38412,10 @@
         </is>
       </c>
       <c r="AE236" t="n">
-        <v>10.32655238233121</v>
+        <v>11.13295101047216</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.1895255267289359</v>
+        <v>0.1345790937051172</v>
       </c>
       <c r="AG236" t="inlineStr">
         <is>
@@ -38565,10 +38573,10 @@
         </is>
       </c>
       <c r="AE237" t="n">
-        <v>8.998194245822548</v>
+        <v>11.76402803362371</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.2784713024142745</v>
+        <v>0.0796583637584089</v>
       </c>
       <c r="AG237" t="inlineStr">
         <is>
@@ -38726,10 +38734,10 @@
         </is>
       </c>
       <c r="AE238" t="n">
-        <v>8.61509671607225</v>
+        <v>11.29347647439934</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.3012176631661377</v>
+        <v>0.1213476846608018</v>
       </c>
       <c r="AG238" t="inlineStr">
         <is>
@@ -38887,10 +38895,10 @@
         </is>
       </c>
       <c r="AE239" t="n">
-        <v>8.530577616550769</v>
+        <v>11.13849943650498</v>
       </c>
       <c r="AF239" t="n">
-        <v>0.3060620929085435</v>
+        <v>0.1338994496039194</v>
       </c>
       <c r="AG239" t="inlineStr">
         <is>
@@ -39048,10 +39056,10 @@
         </is>
       </c>
       <c r="AE240" t="n">
-        <v>8.535531512450103</v>
+        <v>11.78908694344484</v>
       </c>
       <c r="AF240" t="n">
-        <v>0.3057678941510335</v>
+        <v>0.07725163724871313</v>
       </c>
       <c r="AG240" t="inlineStr">
         <is>
@@ -39209,10 +39217,10 @@
         </is>
       </c>
       <c r="AE241" t="n">
-        <v>9.035599833167762</v>
+        <v>11.24658848440944</v>
       </c>
       <c r="AF241" t="n">
-        <v>0.2761910702796435</v>
+        <v>0.125131961246042</v>
       </c>
       <c r="AG241" t="inlineStr">
         <is>
@@ -39370,10 +39378,10 @@
         </is>
       </c>
       <c r="AE242" t="n">
-        <v>9.940414495187385</v>
+        <v>11.08058912934365</v>
       </c>
       <c r="AF242" t="n">
-        <v>0.216342069561137</v>
+        <v>0.138820748797392</v>
       </c>
       <c r="AG242" t="inlineStr">
         <is>
@@ -39531,10 +39539,10 @@
         </is>
       </c>
       <c r="AE243" t="n">
-        <v>8.927346351058642</v>
+        <v>11.69819316830133</v>
       </c>
       <c r="AF243" t="n">
-        <v>0.2827759165491047</v>
+        <v>0.08575632525519301</v>
       </c>
       <c r="AG243" t="inlineStr">
         <is>
@@ -39692,10 +39700,10 @@
         </is>
       </c>
       <c r="AE244" t="n">
-        <v>8.952305637864269</v>
+        <v>11.61422396496733</v>
       </c>
       <c r="AF244" t="n">
-        <v>0.2812657770343335</v>
+        <v>0.0934500575726037</v>
       </c>
       <c r="AG244" t="inlineStr">
         <is>
@@ -39853,10 +39861,10 @@
         </is>
       </c>
       <c r="AE245" t="n">
-        <v>8.695038620659068</v>
+        <v>11.08355243307695</v>
       </c>
       <c r="AF245" t="n">
-        <v>0.2965649787621987</v>
+        <v>0.1385295436665518</v>
       </c>
       <c r="AG245" t="inlineStr">
         <is>
@@ -40014,10 +40022,10 @@
         </is>
       </c>
       <c r="AE246" t="n">
-        <v>8.906676499323659</v>
+        <v>10.66022527655435</v>
       </c>
       <c r="AF246" t="n">
-        <v>0.2840061445763978</v>
+        <v>0.1715031161203073</v>
       </c>
       <c r="AG246" t="inlineStr">
         <is>
@@ -40175,10 +40183,10 @@
         </is>
       </c>
       <c r="AE247" t="n">
-        <v>9.413675599308615</v>
+        <v>12.12031897837772</v>
       </c>
       <c r="AF247" t="n">
-        <v>0.2524078292352818</v>
+        <v>0.0438706443663982</v>
       </c>
       <c r="AG247" t="inlineStr">
         <is>
@@ -40336,10 +40344,10 @@
         </is>
       </c>
       <c r="AE248" t="n">
-        <v>8.661468920501385</v>
+        <v>11.96554862502364</v>
       </c>
       <c r="AF248" t="n">
-        <v>0.2985300543671053</v>
+        <v>0.06006038348598838</v>
       </c>
       <c r="AG248" t="inlineStr">
         <is>
@@ -40497,10 +40505,10 @@
         </is>
       </c>
       <c r="AE249" t="n">
-        <v>7.722726704702759</v>
+        <v>11.1707678124658</v>
       </c>
       <c r="AF249" t="n">
-        <v>0.3458277022111989</v>
+        <v>0.1315289999192958</v>
       </c>
       <c r="AG249" t="inlineStr">
         <is>
@@ -40658,10 +40666,10 @@
         </is>
       </c>
       <c r="AE250" t="n">
-        <v>8.324638639469329</v>
+        <v>11.51972538552974</v>
       </c>
       <c r="AF250" t="n">
-        <v>0.3176520264305284</v>
+        <v>0.1018809209573884</v>
       </c>
       <c r="AG250" t="inlineStr">
         <is>
@@ -40819,10 +40827,10 @@
         </is>
       </c>
       <c r="AE251" t="n">
-        <v>8.893637717708774</v>
+        <v>11.606798492324</v>
       </c>
       <c r="AF251" t="n">
-        <v>0.2848059661920739</v>
+        <v>0.0941206776220095</v>
       </c>
       <c r="AG251" t="inlineStr">
         <is>
@@ -40980,10 +40988,10 @@
         </is>
       </c>
       <c r="AE252" t="n">
-        <v>8.545647828118689</v>
+        <v>11.66108013422501</v>
       </c>
       <c r="AF252" t="n">
-        <v>0.305209704070457</v>
+        <v>0.08919777289292767</v>
       </c>
       <c r="AG252" t="inlineStr">
         <is>
@@ -41141,10 +41149,10 @@
         </is>
       </c>
       <c r="AE253" t="n">
-        <v>8.668371642855615</v>
+        <v>10.58640542161687</v>
       </c>
       <c r="AF253" t="n">
-        <v>0.2981284766087652</v>
+        <v>0.1772029578645393</v>
       </c>
       <c r="AG253" t="inlineStr">
         <is>
@@ -41302,10 +41310,10 @@
         </is>
       </c>
       <c r="AE254" t="n">
-        <v>8.704642020072427</v>
+        <v>11.11051046498624</v>
       </c>
       <c r="AF254" t="n">
-        <v>0.295995595963389</v>
+        <v>0.1362969198756609</v>
       </c>
       <c r="AG254" t="inlineStr">
         <is>
@@ -41463,10 +41471,10 @@
         </is>
       </c>
       <c r="AE255" t="n">
-        <v>9.203378808385196</v>
+        <v>12.14685029446379</v>
       </c>
       <c r="AF255" t="n">
-        <v>0.2657899084530341</v>
+        <v>0.04094621393340528</v>
       </c>
       <c r="AG255" t="inlineStr">
         <is>
@@ -41624,10 +41632,10 @@
         </is>
       </c>
       <c r="AE256" t="n">
-        <v>9.082249024173926</v>
+        <v>11.51706959814227</v>
       </c>
       <c r="AF256" t="n">
-        <v>0.2733234424105909</v>
+        <v>0.102072306462361</v>
       </c>
       <c r="AG256" t="inlineStr">
         <is>
@@ -41785,10 +41793,10 @@
         </is>
       </c>
       <c r="AE257" t="n">
-        <v>9.043828435215881</v>
+        <v>11.81517529679198</v>
       </c>
       <c r="AF257" t="n">
-        <v>0.2756878142524364</v>
+        <v>0.07481070225669588</v>
       </c>
       <c r="AG257" t="inlineStr">
         <is>
@@ -41946,10 +41954,10 @@
         </is>
       </c>
       <c r="AE258" t="n">
-        <v>8.830364537068778</v>
+        <v>10.45467657278477</v>
       </c>
       <c r="AF258" t="n">
-        <v>0.2885909838554671</v>
+        <v>0.1869302958888893</v>
       </c>
       <c r="AG258" t="inlineStr">
         <is>
@@ -42107,10 +42115,10 @@
         </is>
       </c>
       <c r="AE259" t="n">
-        <v>8.373063567692219</v>
+        <v>11.93908980102465</v>
       </c>
       <c r="AF259" t="n">
-        <v>0.3145914564690203</v>
+        <v>0.06268263955833246</v>
       </c>
       <c r="AG259" t="inlineStr">
         <is>
@@ -42268,10 +42276,10 @@
         </is>
       </c>
       <c r="AE260" t="n">
-        <v>9.136838849027185</v>
+        <v>11.46810453192607</v>
       </c>
       <c r="AF260" t="n">
-        <v>0.2699444747838641</v>
+        <v>0.1064056484077261</v>
       </c>
       <c r="AG260" t="inlineStr">
         <is>
@@ -42429,10 +42437,10 @@
         </is>
       </c>
       <c r="AE261" t="n">
-        <v>8.786361596591007</v>
+        <v>11.66194425242343</v>
       </c>
       <c r="AF261" t="n">
-        <v>0.2911853154237351</v>
+        <v>0.08908465825465568</v>
       </c>
       <c r="AG261" t="inlineStr">
         <is>
@@ -42590,10 +42598,10 @@
         </is>
       </c>
       <c r="AE262" t="n">
-        <v>8.287886974568476</v>
+        <v>11.67369010051335</v>
       </c>
       <c r="AF262" t="n">
-        <v>0.3195316000390723</v>
+        <v>0.08803628121428463</v>
       </c>
       <c r="AG262" t="inlineStr">
         <is>
@@ -42751,10 +42759,10 @@
         </is>
       </c>
       <c r="AE263" t="n">
-        <v>8.495551743923812</v>
+        <v>10.96850518903292</v>
       </c>
       <c r="AF263" t="n">
-        <v>0.3080611507994369</v>
+        <v>0.1478451527639618</v>
       </c>
       <c r="AG263" t="inlineStr">
         <is>
@@ -42912,10 +42920,10 @@
         </is>
       </c>
       <c r="AE264" t="n">
-        <v>8.255153263227799</v>
+        <v>11.67879084143489</v>
       </c>
       <c r="AF264" t="n">
-        <v>0.3214762636561952</v>
+        <v>0.08756612241250845</v>
       </c>
       <c r="AG264" t="inlineStr">
         <is>
@@ -43073,10 +43081,10 @@
         </is>
       </c>
       <c r="AE265" t="n">
-        <v>8.604152874058258</v>
+        <v>10.91354653648204</v>
       </c>
       <c r="AF265" t="n">
-        <v>0.301834609407353</v>
+        <v>0.1520134258574354</v>
       </c>
       <c r="AG265" t="inlineStr">
         <is>
@@ -43234,10 +43242,10 @@
         </is>
       </c>
       <c r="AE266" t="n">
-        <v>8.401991364218365</v>
+        <v>11.5714494403402</v>
       </c>
       <c r="AF266" t="n">
-        <v>0.3133274814762003</v>
+        <v>0.09705049277464727</v>
       </c>
       <c r="AG266" t="inlineStr">
         <is>
@@ -43395,10 +43403,10 @@
         </is>
       </c>
       <c r="AE267" t="n">
-        <v>8.681088536115391</v>
+        <v>11.48630267538106</v>
       </c>
       <c r="AF267" t="n">
-        <v>0.2973871854585907</v>
+        <v>0.1044397270955275</v>
       </c>
       <c r="AG267" t="inlineStr">
         <is>
@@ -43556,10 +43564,10 @@
         </is>
       </c>
       <c r="AE268" t="n">
-        <v>8.935587212118262</v>
+        <v>11.04325134409843</v>
       </c>
       <c r="AF268" t="n">
-        <v>0.282271296542389</v>
+        <v>0.1418715796552267</v>
       </c>
       <c r="AG268" t="inlineStr">
         <is>
@@ -43717,10 +43725,10 @@
         </is>
       </c>
       <c r="AE269" t="n">
-        <v>8.40877836999675</v>
+        <v>11.52282845755734</v>
       </c>
       <c r="AF269" t="n">
-        <v>0.3129618865612885</v>
+        <v>0.1016071477149003</v>
       </c>
       <c r="AG269" t="inlineStr">
         <is>
@@ -43878,10 +43886,10 @@
         </is>
       </c>
       <c r="AE270" t="n">
-        <v>8.048665310951803</v>
+        <v>11.22620014522855</v>
       </c>
       <c r="AF270" t="n">
-        <v>0.3326358584961813</v>
+        <v>0.1269643560147657</v>
       </c>
       <c r="AG270" t="inlineStr">
         <is>
@@ -44039,10 +44047,10 @@
         </is>
       </c>
       <c r="AE271" t="n">
-        <v>8.889229404010653</v>
+        <v>11.21750702601225</v>
       </c>
       <c r="AF271" t="n">
-        <v>0.2850711084690677</v>
+        <v>0.1276848364759574</v>
       </c>
       <c r="AG271" t="inlineStr">
         <is>
@@ -44200,10 +44208,10 @@
         </is>
       </c>
       <c r="AE272" t="n">
-        <v>13.86912333645047</v>
+        <v>11.55704959664352</v>
       </c>
       <c r="AF272" t="n">
-        <v>0.3499823979808836</v>
+        <v>0.09855913863263412</v>
       </c>
       <c r="AG272" t="inlineStr">
         <is>
@@ -44361,10 +44369,10 @@
         </is>
       </c>
       <c r="AE273" t="n">
-        <v>8.460173908634978</v>
+        <v>11.54304081941097</v>
       </c>
       <c r="AF273" t="n">
-        <v>0.3100685638607321</v>
+        <v>0.0998016658978049</v>
       </c>
       <c r="AG273" t="inlineStr">
         <is>
@@ -44522,10 +44530,10 @@
         </is>
       </c>
       <c r="AE274" t="n">
-        <v>8.326748492534545</v>
+        <v>11.30516236602508</v>
       </c>
       <c r="AF274" t="n">
-        <v>0.3175351177753242</v>
+        <v>0.1203645250409994</v>
       </c>
       <c r="AG274" t="inlineStr">
         <is>
@@ -44683,10 +44691,10 @@
         </is>
       </c>
       <c r="AE275" t="n">
-        <v>8.259000430054812</v>
+        <v>11.78803506462061</v>
       </c>
       <c r="AF275" t="n">
-        <v>0.3212562557293738</v>
+        <v>0.07738463474514223</v>
       </c>
       <c r="AG275" t="inlineStr">
         <is>
@@ -44844,10 +44852,10 @@
         </is>
       </c>
       <c r="AE276" t="n">
-        <v>8.570798672402605</v>
+        <v>12.24406929099256</v>
       </c>
       <c r="AF276" t="n">
-        <v>0.303768172370007</v>
+        <v>0.02977560844817123</v>
       </c>
       <c r="AG276" t="inlineStr">
         <is>
@@ -45162,10 +45170,10 @@
         </is>
       </c>
       <c r="AE278" t="n">
-        <v>7.380787097678049</v>
+        <v>12.15093680852845</v>
       </c>
       <c r="AF278" t="n">
-        <v>0.3661928248831624</v>
+        <v>0.04037334953753421</v>
       </c>
       <c r="AG278" t="inlineStr">
         <is>
@@ -45323,10 +45331,10 @@
         </is>
       </c>
       <c r="AE279" t="n">
-        <v>8.769283264795803</v>
+        <v>11.30088882113917</v>
       </c>
       <c r="AF279" t="n">
-        <v>0.2922050759755299</v>
+        <v>0.1205892954137738</v>
       </c>
       <c r="AG279" t="inlineStr">
         <is>
@@ -45484,10 +45492,10 @@
         </is>
       </c>
       <c r="AE280" t="n">
-        <v>25.42146163191902</v>
+        <v>11.59240636009269</v>
       </c>
       <c r="AF280" t="n">
-        <v>0</v>
+        <v>0.0953807694888049</v>
       </c>
       <c r="AG280" t="inlineStr">
         <is>
@@ -45645,10 +45653,10 @@
         </is>
       </c>
       <c r="AE281" t="n">
-        <v>8.442755188774758</v>
+        <v>12.06648848753473</v>
       </c>
       <c r="AF281" t="n">
-        <v>0.3110516878007292</v>
+        <v>0.04964397647778925</v>
       </c>
       <c r="AG281" t="inlineStr">
         <is>
@@ -45806,10 +45814,10 @@
         </is>
       </c>
       <c r="AE282" t="n">
-        <v>8.442609801912294</v>
+        <v>12.17775442517174</v>
       </c>
       <c r="AF282" t="n">
-        <v>0.3110570103247978</v>
+        <v>0.0374513580640998</v>
       </c>
       <c r="AG282" t="inlineStr">
         <is>
@@ -45967,10 +45975,10 @@
         </is>
       </c>
       <c r="AE283" t="n">
-        <v>8.641983043850248</v>
+        <v>10.77928612408765</v>
       </c>
       <c r="AF283" t="n">
-        <v>0.2996564326580595</v>
+        <v>0.1625910932448595</v>
       </c>
       <c r="AG283" t="inlineStr">
         <is>
@@ -46128,10 +46136,10 @@
         </is>
       </c>
       <c r="AE284" t="n">
-        <v>8.275733771778143</v>
+        <v>11.29524466143982</v>
       </c>
       <c r="AF284" t="n">
-        <v>0.3203518285942613</v>
+        <v>0.1211990692286081</v>
       </c>
       <c r="AG284" t="inlineStr">
         <is>
@@ -46289,10 +46297,10 @@
         </is>
       </c>
       <c r="AE285" t="n">
-        <v>8.191099812648249</v>
+        <v>10.37429342625211</v>
       </c>
       <c r="AF285" t="n">
-        <v>0.3249661543311481</v>
+        <v>0.1927204289424309</v>
       </c>
       <c r="AG285" t="inlineStr">
         <is>
@@ -46450,10 +46458,10 @@
         </is>
       </c>
       <c r="AE286" t="n">
-        <v>0</v>
+        <v>11.98205251246645</v>
       </c>
       <c r="AF286" t="n">
-        <v>0.5260348120593322</v>
+        <v>0.05838931263018213</v>
       </c>
       <c r="AG286" t="inlineStr">
         <is>
@@ -46611,10 +46619,10 @@
         </is>
       </c>
       <c r="AE287" t="n">
-        <v>25.19419966302274</v>
+        <v>12.00140048751437</v>
       </c>
       <c r="AF287" t="n">
-        <v>0</v>
+        <v>0.05641508339312119</v>
       </c>
       <c r="AG287" t="inlineStr">
         <is>
@@ -46772,10 +46780,10 @@
         </is>
       </c>
       <c r="AE288" t="n">
-        <v>3.032027880733818</v>
+        <v>11.9099142716435</v>
       </c>
       <c r="AF288" t="n">
-        <v>0.3145556482866798</v>
+        <v>0.06557873569554779</v>
       </c>
       <c r="AG288" t="inlineStr">
         <is>
@@ -46933,10 +46941,10 @@
         </is>
       </c>
       <c r="AE289" t="n">
-        <v>8.394091971673049</v>
+        <v>10.31474145217147</v>
       </c>
       <c r="AF289" t="n">
-        <v>0.3137361423124186</v>
+        <v>0.1960027175031223</v>
       </c>
       <c r="AG289" t="inlineStr">
         <is>
@@ -47094,10 +47102,10 @@
         </is>
       </c>
       <c r="AE290" t="n">
-        <v>39.59122031928955</v>
+        <v>11.04038349259077</v>
       </c>
       <c r="AF290" t="n">
-        <v>0</v>
+        <v>0.1421170445128995</v>
       </c>
       <c r="AG290" t="inlineStr">
         <is>
@@ -47255,10 +47263,10 @@
         </is>
       </c>
       <c r="AE291" t="n">
-        <v>8.566753077621005</v>
+        <v>12.25580774389001</v>
       </c>
       <c r="AF291" t="n">
-        <v>0.3039994486712848</v>
+        <v>0.02837755107845008</v>
       </c>
       <c r="AG291" t="inlineStr">
         <is>
@@ -47416,10 +47424,10 @@
         </is>
       </c>
       <c r="AE292" t="n">
-        <v>16.19129866032218</v>
+        <v>11.1778374312208</v>
       </c>
       <c r="AF292" t="n">
-        <v>0.2251036011075151</v>
+        <v>0.1307329857439641</v>
       </c>
       <c r="AG292" t="inlineStr">
         <is>
@@ -47577,10 +47585,10 @@
         </is>
       </c>
       <c r="AE293" t="n">
-        <v>8.089984324237964</v>
+        <v>11.62766990324832</v>
       </c>
       <c r="AF293" t="n">
-        <v>0.3304297611944875</v>
+        <v>0.09221590979200806</v>
       </c>
       <c r="AG293" t="inlineStr">
         <is>
@@ -47738,10 +47746,10 @@
         </is>
       </c>
       <c r="AE294" t="n">
-        <v>8.852406448434399</v>
+        <v>12.37650640140135</v>
       </c>
       <c r="AF294" t="n">
-        <v>0.2870439385383495</v>
+        <v>0.01230464842846182</v>
       </c>
       <c r="AG294" t="inlineStr">
         <is>
@@ -47899,10 +47907,10 @@
         </is>
       </c>
       <c r="AE295" t="n">
-        <v>8.518123998033609</v>
+        <v>11.52848611556115</v>
       </c>
       <c r="AF295" t="n">
-        <v>0.3067609682146504</v>
+        <v>0.1011064158304054</v>
       </c>
       <c r="AG295" t="inlineStr">
         <is>
@@ -48217,10 +48225,10 @@
         </is>
       </c>
       <c r="AE297" t="n">
-        <v>8.264896086462144</v>
+        <v>11.47348777595156</v>
       </c>
       <c r="AF297" t="n">
-        <v>0.3209417891553351</v>
+        <v>0.1059066775948612</v>
       </c>
       <c r="AG297" t="inlineStr">
         <is>
@@ -48378,10 +48386,10 @@
         </is>
       </c>
       <c r="AE298" t="n">
-        <v>8.335535206862419</v>
+        <v>11.62792112003416</v>
       </c>
       <c r="AF298" t="n">
-        <v>0.3170478525217689</v>
+        <v>0.09221354232737849</v>
       </c>
       <c r="AG298" t="inlineStr">
         <is>
@@ -48539,10 +48547,10 @@
         </is>
       </c>
       <c r="AE299" t="n">
-        <v>8.23467642363349</v>
+        <v>11.66403042309213</v>
       </c>
       <c r="AF299" t="n">
-        <v>0.3226035446975279</v>
+        <v>0.08892816962005853</v>
       </c>
       <c r="AG299" t="inlineStr">
         <is>
@@ -48700,10 +48708,10 @@
         </is>
       </c>
       <c r="AE300" t="n">
-        <v>8.441088174036061</v>
+        <v>11.4650029445856</v>
       </c>
       <c r="AF300" t="n">
-        <v>0.3111431675540753</v>
+        <v>0.1064896174590683</v>
       </c>
       <c r="AG300" t="inlineStr">
         <is>
@@ -48861,10 +48869,10 @@
         </is>
       </c>
       <c r="AE301" t="n">
-        <v>7.676112898210765</v>
+        <v>11.81045344200956</v>
       </c>
       <c r="AF301" t="n">
-        <v>0.3474908253503033</v>
+        <v>0.07523385497991637</v>
       </c>
       <c r="AG301" t="inlineStr">
         <is>
@@ -49022,10 +49030,10 @@
         </is>
       </c>
       <c r="AE302" t="n">
-        <v>8.763663301211615</v>
+        <v>11.79329915959045</v>
       </c>
       <c r="AF302" t="n">
-        <v>0.2925372920338149</v>
+        <v>0.07685874243222107</v>
       </c>
       <c r="AG302" t="inlineStr">
         <is>
@@ -49183,10 +49191,10 @@
         </is>
       </c>
       <c r="AE303" t="n">
-        <v>8.190618857879079</v>
+        <v>11.77125219273386</v>
       </c>
       <c r="AF303" t="n">
-        <v>0.32411004207397</v>
+        <v>0.07897781623535305</v>
       </c>
       <c r="AG303" t="inlineStr">
         <is>
@@ -49344,10 +49352,10 @@
         </is>
       </c>
       <c r="AE304" t="n">
-        <v>8.72487425849115</v>
+        <v>11.66711044001174</v>
       </c>
       <c r="AF304" t="n">
-        <v>0.2948161219704258</v>
+        <v>0.08845745648505229</v>
       </c>
       <c r="AG304" t="inlineStr">
         <is>
@@ -49505,10 +49513,10 @@
         </is>
       </c>
       <c r="AE305" t="n">
-        <v>29.53922135082155</v>
+        <v>11.94353632500631</v>
       </c>
       <c r="AF305" t="n">
-        <v>0</v>
+        <v>0.06226528303957828</v>
       </c>
       <c r="AG305" t="inlineStr">
         <is>
@@ -49666,10 +49674,10 @@
         </is>
       </c>
       <c r="AE306" t="n">
-        <v>8.75606006941635</v>
+        <v>12.0296536577692</v>
       </c>
       <c r="AF306" t="n">
-        <v>0.2929731681008295</v>
+        <v>0.05350020856076296</v>
       </c>
       <c r="AG306" t="inlineStr">
         <is>
@@ -49827,10 +49835,10 @@
         </is>
       </c>
       <c r="AE307" t="n">
-        <v>8.620711911106435</v>
+        <v>11.91383968874394</v>
       </c>
       <c r="AF307" t="n">
-        <v>0.300842765684479</v>
+        <v>0.06522032998204372</v>
       </c>
       <c r="AG307" t="inlineStr">
         <is>
@@ -49988,10 +49996,10 @@
         </is>
       </c>
       <c r="AE308" t="n">
-        <v>8.856757689338181</v>
+        <v>10.6444150391791</v>
       </c>
       <c r="AF308" t="n">
-        <v>0.2870163703744821</v>
+        <v>0.1728581384813521</v>
       </c>
       <c r="AG308" t="inlineStr">
         <is>
@@ -50149,10 +50157,10 @@
         </is>
       </c>
       <c r="AE309" t="n">
-        <v>8.539201865602882</v>
+        <v>10.60913422364417</v>
       </c>
       <c r="AF309" t="n">
-        <v>0.3055671238862823</v>
+        <v>0.1754793919768161</v>
       </c>
       <c r="AG309" t="inlineStr">
         <is>
@@ -50310,10 +50318,10 @@
         </is>
       </c>
       <c r="AE310" t="n">
-        <v>8.209695169465641</v>
+        <v>11.37175453073519</v>
       </c>
       <c r="AF310" t="n">
-        <v>0.3239582680130018</v>
+        <v>0.1147176435894389</v>
       </c>
       <c r="AG310" t="inlineStr">
         <is>
@@ -50471,10 +50479,10 @@
         </is>
       </c>
       <c r="AE311" t="n">
-        <v>8.341894635317793</v>
+        <v>10.61003552267475</v>
       </c>
       <c r="AF311" t="n">
-        <v>0.3166908592033323</v>
+        <v>0.1754237403419626</v>
       </c>
       <c r="AG311" t="inlineStr">
         <is>
@@ -50632,10 +50640,10 @@
         </is>
       </c>
       <c r="AE312" t="n">
-        <v>8.701431678598052</v>
+        <v>10.84780506334815</v>
       </c>
       <c r="AF312" t="n">
-        <v>0.2961741438554726</v>
+        <v>0.1572336079395472</v>
       </c>
       <c r="AG312" t="inlineStr">
         <is>
@@ -50793,10 +50801,10 @@
         </is>
       </c>
       <c r="AE313" t="n">
-        <v>8.45715962579678</v>
+        <v>11.38433504034303</v>
       </c>
       <c r="AF313" t="n">
-        <v>0.3102390310474401</v>
+        <v>0.1136421485435447</v>
       </c>
       <c r="AG313" t="inlineStr">
         <is>
@@ -50954,10 +50962,10 @@
         </is>
       </c>
       <c r="AE314" t="n">
-        <v>8.559851134838173</v>
+        <v>10.86057184480436</v>
       </c>
       <c r="AF314" t="n">
-        <v>0.3043826694637044</v>
+        <v>0.156153218178107</v>
       </c>
       <c r="AG314" t="inlineStr">
         <is>
@@ -51115,10 +51123,10 @@
         </is>
       </c>
       <c r="AE315" t="n">
-        <v>8.168908261654124</v>
+        <v>12.04558959395881</v>
       </c>
       <c r="AF315" t="n">
-        <v>0.3261821286996732</v>
+        <v>0.0518253065138182</v>
       </c>
       <c r="AG315" t="inlineStr">
         <is>
@@ -51433,10 +51441,10 @@
         </is>
       </c>
       <c r="AE317" t="n">
-        <v>8.330436050959994</v>
+        <v>11.31177658977585</v>
       </c>
       <c r="AF317" t="n">
-        <v>0.3173302400653318</v>
+        <v>0.1197199461704012</v>
       </c>
       <c r="AG317" t="inlineStr">
         <is>
@@ -51594,10 +51602,10 @@
         </is>
       </c>
       <c r="AE318" t="n">
-        <v>8.569425867820916</v>
+        <v>11.50852880902618</v>
       </c>
       <c r="AF318" t="n">
-        <v>0.3038472924127576</v>
+        <v>0.1028320847465516</v>
       </c>
       <c r="AG318" t="inlineStr">
         <is>
@@ -51755,10 +51763,10 @@
         </is>
       </c>
       <c r="AE319" t="n">
-        <v>8.447936374863609</v>
+        <v>11.22268029444625</v>
       </c>
       <c r="AF319" t="n">
-        <v>0.3107578632642914</v>
+        <v>0.1272512963874208</v>
       </c>
       <c r="AG319" t="inlineStr">
         <is>
@@ -51916,10 +51924,10 @@
         </is>
       </c>
       <c r="AE320" t="n">
-        <v>7.911456995749141</v>
+        <v>11.30168218793766</v>
       </c>
       <c r="AF320" t="n">
-        <v>0.3398579080753137</v>
+        <v>0.1206515100065862</v>
       </c>
       <c r="AG320" t="inlineStr">
         <is>
@@ -52077,10 +52085,10 @@
         </is>
       </c>
       <c r="AE321" t="n">
-        <v>8.762110769061884</v>
+        <v>12.05355552487847</v>
       </c>
       <c r="AF321" t="n">
-        <v>0.2926341249648984</v>
+        <v>0.05098272075185244</v>
       </c>
       <c r="AG321" t="inlineStr">
         <is>
@@ -52238,10 +52246,10 @@
         </is>
       </c>
       <c r="AE322" t="n">
-        <v>8.34793311146634</v>
+        <v>11.20855506041504</v>
       </c>
       <c r="AF322" t="n">
-        <v>0.3163592047993251</v>
+        <v>0.1284125025713858</v>
       </c>
       <c r="AG322" t="inlineStr">
         <is>
@@ -52399,10 +52407,10 @@
         </is>
       </c>
       <c r="AE323" t="n">
-        <v>8.519228600180375</v>
+        <v>11.5502937668829</v>
       </c>
       <c r="AF323" t="n">
-        <v>0.3067173167264006</v>
+        <v>0.09905451074286011</v>
       </c>
       <c r="AG323" t="inlineStr">
         <is>
@@ -52560,10 +52568,10 @@
         </is>
       </c>
       <c r="AE324" t="n">
-        <v>8.150642431595934</v>
+        <v>11.971095000651</v>
       </c>
       <c r="AF324" t="n">
-        <v>0.327170037733247</v>
+        <v>0.05946599127085717</v>
       </c>
       <c r="AG324" t="inlineStr">
         <is>
@@ -52721,10 +52729,10 @@
         </is>
       </c>
       <c r="AE325" t="n">
-        <v>8.188413993432027</v>
+        <v>11.9463803674688</v>
       </c>
       <c r="AF325" t="n">
-        <v>0.3251240338968349</v>
+        <v>0.06194865114896389</v>
       </c>
       <c r="AG325" t="inlineStr">
         <is>
@@ -52882,10 +52890,10 @@
         </is>
       </c>
       <c r="AE326" t="n">
-        <v>8.31337645420005</v>
+        <v>11.958182366291</v>
       </c>
       <c r="AF326" t="n">
-        <v>0.3182405207202956</v>
+        <v>0.06078576465637985</v>
       </c>
       <c r="AG326" t="inlineStr">
         <is>
@@ -53043,10 +53051,10 @@
         </is>
       </c>
       <c r="AE327" t="n">
-        <v>8.447440423913015</v>
+        <v>11.5675528297139</v>
       </c>
       <c r="AF327" t="n">
-        <v>0.3107875454205773</v>
+        <v>0.09763891896880474</v>
       </c>
       <c r="AG327" t="inlineStr">
         <is>
@@ -53204,10 +53212,10 @@
         </is>
       </c>
       <c r="AE328" t="n">
-        <v>8.232686574746564</v>
+        <v>11.67804205853222</v>
       </c>
       <c r="AF328" t="n">
-        <v>0.3227123302734766</v>
+        <v>0.08764484270699539</v>
       </c>
       <c r="AG328" t="inlineStr">
         <is>
@@ -53522,10 +53530,10 @@
         </is>
       </c>
       <c r="AE330" t="n">
-        <v>8.39201553650032</v>
+        <v>11.83841072341904</v>
       </c>
       <c r="AF330" t="n">
-        <v>0.313900854620936</v>
+        <v>0.07258220112176497</v>
       </c>
       <c r="AG330" t="inlineStr">
         <is>
@@ -53840,10 +53848,10 @@
         </is>
       </c>
       <c r="AE332" t="n">
-        <v>8.762196635512073</v>
+        <v>12.06525807031847</v>
       </c>
       <c r="AF332" t="n">
-        <v>0.2926290591011462</v>
+        <v>0.04971348617433553</v>
       </c>
       <c r="AG332" t="inlineStr">
         <is>
@@ -54001,10 +54009,10 @@
         </is>
       </c>
       <c r="AE333" t="n">
-        <v>8.183596349147665</v>
+        <v>11.3683709045068</v>
       </c>
       <c r="AF333" t="n">
-        <v>0.325384355611622</v>
+        <v>0.1149888474215297</v>
       </c>
       <c r="AG333" t="inlineStr">
         <is>
@@ -54162,10 +54170,10 @@
         </is>
       </c>
       <c r="AE334" t="n">
-        <v>8.100464304096132</v>
+        <v>11.1382928295761</v>
       </c>
       <c r="AF334" t="n">
-        <v>0.3298698893984821</v>
+        <v>0.1341964890753514</v>
       </c>
       <c r="AG334" t="inlineStr">
         <is>
@@ -54323,10 +54331,10 @@
         </is>
       </c>
       <c r="AE335" t="n">
-        <v>8.682724178369533</v>
+        <v>11.87306699309076</v>
       </c>
       <c r="AF335" t="n">
-        <v>0.2972408849680587</v>
+        <v>0.06921584195586958</v>
       </c>
       <c r="AG335" t="inlineStr">
         <is>
@@ -54484,10 +54492,10 @@
         </is>
       </c>
       <c r="AE336" t="n">
-        <v>0</v>
+        <v>11.61229162974949</v>
       </c>
       <c r="AF336" t="n">
-        <v>0.525733267482989</v>
+        <v>0.09362607647150127</v>
       </c>
       <c r="AG336" t="inlineStr">
         <is>
@@ -54802,10 +54810,10 @@
         </is>
       </c>
       <c r="AE338" t="n">
-        <v>9.884756991158167</v>
+        <v>11.92971744541946</v>
       </c>
       <c r="AF338" t="n">
-        <v>0.2209588619837196</v>
+        <v>0.06359491196138466</v>
       </c>
       <c r="AG338" t="inlineStr">
         <is>
@@ -54963,10 +54971,10 @@
         </is>
       </c>
       <c r="AE339" t="n">
-        <v>8.580044195494287</v>
+        <v>11.31350144066419</v>
       </c>
       <c r="AF339" t="n">
-        <v>0.303224879772355</v>
+        <v>0.1196613445243484</v>
       </c>
       <c r="AG339" t="inlineStr">
         <is>
@@ -55124,10 +55132,10 @@
         </is>
       </c>
       <c r="AE340" t="n">
-        <v>8.858498137653344</v>
+        <v>11.74570324959623</v>
       </c>
       <c r="AF340" t="n">
-        <v>0.2868867023574599</v>
+        <v>0.0813465516745327</v>
       </c>
       <c r="AG340" t="inlineStr">
         <is>
@@ -55285,10 +55293,10 @@
         </is>
       </c>
       <c r="AE341" t="n">
-        <v>8.710263420558686</v>
+        <v>12.13856235607224</v>
       </c>
       <c r="AF341" t="n">
-        <v>0.2956828127370189</v>
+        <v>0.04186429269205164</v>
       </c>
       <c r="AG341" t="inlineStr">
         <is>
@@ -55446,10 +55454,10 @@
         </is>
       </c>
       <c r="AE342" t="n">
-        <v>8.019874790618189</v>
+        <v>11.98616319738248</v>
       </c>
       <c r="AF342" t="n">
-        <v>0.334163987571295</v>
+        <v>0.05797127648663045</v>
       </c>
       <c r="AG342" t="inlineStr">
         <is>
@@ -55607,10 +55615,10 @@
         </is>
       </c>
       <c r="AE343" t="n">
-        <v>22.14584547575594</v>
+        <v>11.65340810431512</v>
       </c>
       <c r="AF343" t="n">
-        <v>0</v>
+        <v>0.08989234228258496</v>
       </c>
       <c r="AG343" t="inlineStr">
         <is>
@@ -55768,10 +55776,10 @@
         </is>
       </c>
       <c r="AE344" t="n">
-        <v>7.52100459916416</v>
+        <v>11.39937983791157</v>
       </c>
       <c r="AF344" t="n">
-        <v>0.3585061290023129</v>
+        <v>0.1120113356435804</v>
       </c>
       <c r="AG344" t="inlineStr">
         <is>
@@ -55929,10 +55937,10 @@
         </is>
       </c>
       <c r="AE345" t="n">
-        <v>8.348311906630295</v>
+        <v>11.71309490089315</v>
       </c>
       <c r="AF345" t="n">
-        <v>0.3163349955054791</v>
+        <v>0.08433289203656012</v>
       </c>
       <c r="AG345" t="inlineStr">
         <is>
@@ -56090,10 +56098,10 @@
         </is>
       </c>
       <c r="AE346" t="n">
-        <v>7.653202935513715</v>
+        <v>11.68933781941164</v>
       </c>
       <c r="AF346" t="n">
-        <v>0.353052977956158</v>
+        <v>0.086606710519046</v>
       </c>
       <c r="AG346" t="inlineStr">
         <is>
@@ -56251,10 +56259,10 @@
         </is>
       </c>
       <c r="AE347" t="n">
-        <v>6.902415572714371</v>
+        <v>11.46616778605995</v>
       </c>
       <c r="AF347" t="n">
-        <v>0.3884628576734699</v>
+        <v>0.10657555126941</v>
       </c>
       <c r="AG347" t="inlineStr">
         <is>
@@ -56412,10 +56420,10 @@
         </is>
       </c>
       <c r="AE348" t="n">
-        <v>8.934524405673413</v>
+        <v>11.3263251665602</v>
       </c>
       <c r="AF348" t="n">
-        <v>0.2822728618246556</v>
+        <v>0.1184398686243484</v>
       </c>
       <c r="AG348" t="inlineStr">
         <is>
@@ -56573,10 +56581,10 @@
         </is>
       </c>
       <c r="AE349" t="n">
-        <v>8.375784733619067</v>
+        <v>11.1095282290295</v>
       </c>
       <c r="AF349" t="n">
-        <v>0.3148078522227817</v>
+        <v>0.1365377737397419</v>
       </c>
       <c r="AG349" t="inlineStr">
         <is>
@@ -56734,10 +56742,10 @@
         </is>
       </c>
       <c r="AE350" t="n">
-        <v>7.540517296122104</v>
+        <v>12.03580323517137</v>
       </c>
       <c r="AF350" t="n">
-        <v>0.3548099723440715</v>
+        <v>0.05276455316005158</v>
       </c>
       <c r="AG350" t="inlineStr">
         <is>
@@ -56895,10 +56903,10 @@
         </is>
       </c>
       <c r="AE351" t="n">
-        <v>8.600596187306728</v>
+        <v>11.56361543066929</v>
       </c>
       <c r="AF351" t="n">
-        <v>0.3020544456868229</v>
+        <v>0.09798997587137293</v>
       </c>
       <c r="AG351" t="inlineStr">
         <is>
@@ -57056,10 +57064,10 @@
         </is>
       </c>
       <c r="AE352" t="n">
-        <v>7.987707392268812</v>
+        <v>11.22397634485309</v>
       </c>
       <c r="AF352" t="n">
-        <v>0.3358588204840767</v>
+        <v>0.1270416770046316</v>
       </c>
       <c r="AG352" t="inlineStr">
         <is>
@@ -57217,10 +57225,10 @@
         </is>
       </c>
       <c r="AE353" t="n">
-        <v>9.001072505499426</v>
+        <v>11.50898084132686</v>
       </c>
       <c r="AF353" t="n">
-        <v>0.2782985564814019</v>
+        <v>0.102805566476719</v>
       </c>
       <c r="AG353" t="inlineStr">
         <is>
@@ -57378,10 +57386,10 @@
         </is>
       </c>
       <c r="AE354" t="n">
-        <v>7.886894205858367</v>
+        <v>12.25145280791689</v>
       </c>
       <c r="AF354" t="n">
-        <v>0.3411333962205754</v>
+        <v>0.02890652159479049</v>
       </c>
       <c r="AG354" t="inlineStr">
         <is>
@@ -57539,10 +57547,10 @@
         </is>
       </c>
       <c r="AE355" t="n">
-        <v>8.302908429100794</v>
+        <v>11.17392394192167</v>
       </c>
       <c r="AF355" t="n">
-        <v>0.3188534899353422</v>
+        <v>0.1312676661037109</v>
       </c>
       <c r="AG355" t="inlineStr">
         <is>
@@ -57700,10 +57708,10 @@
         </is>
       </c>
       <c r="AE356" t="n">
-        <v>8.810268946542912</v>
+        <v>11.54714345732123</v>
       </c>
       <c r="AF356" t="n">
-        <v>0.2896670351164946</v>
+        <v>0.09942131275064231</v>
       </c>
       <c r="AG356" t="inlineStr">
         <is>
@@ -57861,10 +57869,10 @@
         </is>
       </c>
       <c r="AE357" t="n">
-        <v>7.737707168686403</v>
+        <v>11.88011168418175</v>
       </c>
       <c r="AF357" t="n">
-        <v>0.3413109659859503</v>
+        <v>0.06833498459443536</v>
       </c>
       <c r="AG357" t="inlineStr">
         <is>
@@ -58022,10 +58030,10 @@
         </is>
       </c>
       <c r="AE358" t="n">
-        <v>7.707258202625378</v>
+        <v>11.80843617003414</v>
       </c>
       <c r="AF358" t="n">
-        <v>0.3503223762409927</v>
+        <v>0.07542702933769589</v>
       </c>
       <c r="AG358" t="inlineStr">
         <is>
@@ -58183,10 +58191,10 @@
         </is>
       </c>
       <c r="AE359" t="n">
-        <v>7.325194699546397</v>
+        <v>11.18873181254737</v>
       </c>
       <c r="AF359" t="n">
-        <v>0.3682176160938889</v>
+        <v>0.1300228192316413</v>
       </c>
       <c r="AG359" t="inlineStr">
         <is>
@@ -58344,10 +58352,10 @@
         </is>
       </c>
       <c r="AE360" t="n">
-        <v>7.878163901334467</v>
+        <v>10.53704639274829</v>
       </c>
       <c r="AF360" t="n">
-        <v>0.3407062091755116</v>
+        <v>0.1808006155683539</v>
       </c>
       <c r="AG360" t="inlineStr">
         <is>
@@ -58505,10 +58513,10 @@
         </is>
       </c>
       <c r="AE361" t="n">
-        <v>8.054902557537437</v>
+        <v>10.72745593307845</v>
       </c>
       <c r="AF361" t="n">
-        <v>0.3323038912280687</v>
+        <v>0.1665684252081085</v>
       </c>
       <c r="AG361" t="inlineStr">
         <is>
@@ -58666,10 +58674,10 @@
         </is>
       </c>
       <c r="AE362" t="n">
-        <v>8.083290147369972</v>
+        <v>11.66409538324518</v>
       </c>
       <c r="AF362" t="n">
-        <v>0.330777159951317</v>
+        <v>0.0889134973528817</v>
       </c>
       <c r="AG362" t="inlineStr">
         <is>
@@ -58827,10 +58835,10 @@
         </is>
       </c>
       <c r="AE363" t="n">
-        <v>8.624440238839181</v>
+        <v>11.88757384230714</v>
       </c>
       <c r="AF363" t="n">
-        <v>0.3006733461314441</v>
+        <v>0.06776220945044252</v>
       </c>
       <c r="AG363" t="inlineStr">
         <is>
@@ -58988,10 +58996,10 @@
         </is>
       </c>
       <c r="AE364" t="n">
-        <v>8.143054134002211</v>
+        <v>11.38332791717067</v>
       </c>
       <c r="AF364" t="n">
-        <v>0.3275796474820603</v>
+        <v>0.1137283506233958</v>
       </c>
       <c r="AG364" t="inlineStr">
         <is>
@@ -59149,10 +59157,10 @@
         </is>
       </c>
       <c r="AE365" t="n">
-        <v>8.031656999156962</v>
+        <v>11.67523925413701</v>
       </c>
       <c r="AF365" t="n">
-        <v>0.3335390816709523</v>
+        <v>0.08787520052681561</v>
       </c>
       <c r="AG365" t="inlineStr">
         <is>
@@ -59310,10 +59318,10 @@
         </is>
       </c>
       <c r="AE366" t="n">
-        <v>4.014027257837171</v>
+        <v>12.06826569445455</v>
       </c>
       <c r="AF366" t="n">
-        <v>0.4798862493244359</v>
+        <v>0.0494497894435243</v>
       </c>
       <c r="AG366" t="inlineStr">
         <is>
@@ -59471,10 +59479,10 @@
         </is>
       </c>
       <c r="AE367" t="n">
-        <v>7.424296880093844</v>
+        <v>12.08148380815827</v>
       </c>
       <c r="AF367" t="n">
-        <v>0.3639789644969748</v>
+        <v>0.04802958738271006</v>
       </c>
       <c r="AG367" t="inlineStr">
         <is>
@@ -59632,10 +59640,10 @@
         </is>
       </c>
       <c r="AE368" t="n">
-        <v>8.071120159150084</v>
+        <v>11.50364924733856</v>
       </c>
       <c r="AF368" t="n">
-        <v>0.3314368802852395</v>
+        <v>0.103290114220391</v>
       </c>
       <c r="AG368" t="inlineStr">
         <is>
@@ -59793,10 +59801,10 @@
         </is>
       </c>
       <c r="AE369" t="n">
-        <v>7.534492367307851</v>
+        <v>12.02407875352178</v>
       </c>
       <c r="AF369" t="n">
-        <v>0.3587354391576711</v>
+        <v>0.05403816732849356</v>
       </c>
       <c r="AG369" t="inlineStr">
         <is>
@@ -59954,10 +59962,10 @@
         </is>
       </c>
       <c r="AE370" t="n">
-        <v>7.688840633385648</v>
+        <v>11.81347512690146</v>
       </c>
       <c r="AF370" t="n">
-        <v>0.3512634969680501</v>
+        <v>0.07497310502992652</v>
       </c>
       <c r="AG370" t="inlineStr">
         <is>
@@ -60115,10 +60123,10 @@
         </is>
       </c>
       <c r="AE371" t="n">
-        <v>7.98176395673026</v>
+        <v>11.64652698824144</v>
       </c>
       <c r="AF371" t="n">
-        <v>0.3361766909686515</v>
+        <v>0.09052458690675097</v>
       </c>
       <c r="AG371" t="inlineStr">
         <is>
@@ -60276,10 +60284,10 @@
         </is>
       </c>
       <c r="AE372" t="n">
-        <v>8.453317100231935</v>
+        <v>11.87847274643905</v>
       </c>
       <c r="AF372" t="n">
-        <v>0.310450438731834</v>
+        <v>0.06836044788185584</v>
       </c>
       <c r="AG372" t="inlineStr">
         <is>
@@ -60437,10 +60445,10 @@
         </is>
       </c>
       <c r="AE373" t="n">
-        <v>8.314522201640568</v>
+        <v>12.05037800200467</v>
       </c>
       <c r="AF373" t="n">
-        <v>0.3182120874908142</v>
+        <v>0.05133986446251983</v>
       </c>
       <c r="AG373" t="inlineStr">
         <is>
@@ -60598,10 +60606,10 @@
         </is>
       </c>
       <c r="AE374" t="n">
-        <v>7.996755787877766</v>
+        <v>11.92806836532486</v>
       </c>
       <c r="AF374" t="n">
-        <v>0.3353860358965564</v>
+        <v>0.06379949901954658</v>
       </c>
       <c r="AG374" t="inlineStr">
         <is>
@@ -60759,10 +60767,10 @@
         </is>
       </c>
       <c r="AE375" t="n">
-        <v>7.877551749560493</v>
+        <v>11.59904543931853</v>
       </c>
       <c r="AF375" t="n">
-        <v>0.3416181381106786</v>
+        <v>0.09478371559243993</v>
       </c>
       <c r="AG375" t="inlineStr">
         <is>
@@ -60920,10 +60928,10 @@
         </is>
       </c>
       <c r="AE376" t="n">
-        <v>8.69929391551632</v>
+        <v>11.37838727797141</v>
       </c>
       <c r="AF376" t="n">
-        <v>0.2960778016990221</v>
+        <v>0.1140333976855047</v>
       </c>
       <c r="AG376" t="inlineStr">
         <is>
@@ -61081,10 +61089,10 @@
         </is>
       </c>
       <c r="AE377" t="n">
-        <v>7.975356574281456</v>
+        <v>11.93259125925151</v>
       </c>
       <c r="AF377" t="n">
-        <v>0.3365107560992748</v>
+        <v>0.06336078013763176</v>
       </c>
       <c r="AG377" t="inlineStr">
         <is>
@@ -61242,10 +61250,10 @@
         </is>
       </c>
       <c r="AE378" t="n">
-        <v>8.469349909230266</v>
+        <v>12.0586944324126</v>
       </c>
       <c r="AF378" t="n">
-        <v>0.3095499723172132</v>
+        <v>0.05046614978593399</v>
       </c>
       <c r="AG378" t="inlineStr">
         <is>
@@ -61403,10 +61411,10 @@
         </is>
       </c>
       <c r="AE379" t="n">
-        <v>7.974346120983222</v>
+        <v>11.31032428485756</v>
       </c>
       <c r="AF379" t="n">
-        <v>0.3365659701074522</v>
+        <v>0.119860355555892</v>
       </c>
       <c r="AG379" t="inlineStr">
         <is>
@@ -61563,8 +61571,12 @@
           <t>CO 0238</t>
         </is>
       </c>
-      <c r="AE380" t="inlineStr"/>
-      <c r="AF380" t="inlineStr"/>
+      <c r="AE380" t="n">
+        <v>11.7138443422092</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>0.08412404446617908</v>
+      </c>
       <c r="AG380" t="inlineStr">
         <is>
           <t>Plantation Cycle Complete</t>
@@ -61721,10 +61733,10 @@
         </is>
       </c>
       <c r="AE381" t="n">
-        <v>7.917776640730153</v>
+        <v>11.06450532398889</v>
       </c>
       <c r="AF381" t="n">
-        <v>0.3395227541479809</v>
+        <v>0.1401212181511117</v>
       </c>
       <c r="AG381" t="inlineStr">
         <is>
@@ -61882,10 +61894,10 @@
         </is>
       </c>
       <c r="AE382" t="n">
-        <v>8.064002051029718</v>
+        <v>11.98576374083873</v>
       </c>
       <c r="AF382" t="n">
-        <v>0.3318056065215347</v>
+        <v>0.0578364618670027</v>
       </c>
       <c r="AG382" t="inlineStr">
         <is>
@@ -62043,10 +62055,10 @@
         </is>
       </c>
       <c r="AE383" t="n">
-        <v>7.923343875727734</v>
+        <v>11.13436622442693</v>
       </c>
       <c r="AF383" t="n">
-        <v>0.339239603841685</v>
+        <v>0.1344383853815122</v>
       </c>
       <c r="AG383" t="inlineStr">
         <is>
@@ -62204,10 +62216,10 @@
         </is>
       </c>
       <c r="AE384" t="n">
-        <v>7.927953166840435</v>
+        <v>12.12543014168596</v>
       </c>
       <c r="AF384" t="n">
-        <v>0.3389987209177431</v>
+        <v>0.04331105753841701</v>
       </c>
       <c r="AG384" t="inlineStr">
         <is>
@@ -62365,10 +62377,10 @@
         </is>
       </c>
       <c r="AE385" t="n">
-        <v>8.404409797599859</v>
+        <v>11.84531554333205</v>
       </c>
       <c r="AF385" t="n">
-        <v>0.3132041387479432</v>
+        <v>0.07190799191374039</v>
       </c>
       <c r="AG385" t="inlineStr">
         <is>
@@ -62526,10 +62538,10 @@
         </is>
       </c>
       <c r="AE386" t="n">
-        <v>8.950850703710771</v>
+        <v>11.06299957759536</v>
       </c>
       <c r="AF386" t="n">
-        <v>0.281353721347126</v>
+        <v>0.1402697871750314</v>
       </c>
       <c r="AG386" t="inlineStr">
         <is>
@@ -62687,10 +62699,10 @@
         </is>
       </c>
       <c r="AE387" t="n">
-        <v>7.731336005277597</v>
+        <v>11.64201830019205</v>
       </c>
       <c r="AF387" t="n">
-        <v>0.3491150706915384</v>
+        <v>0.09088718283312097</v>
       </c>
       <c r="AG387" t="inlineStr">
         <is>
@@ -62848,10 +62860,10 @@
         </is>
       </c>
       <c r="AE388" t="n">
-        <v>8.660086753163421</v>
+        <v>11.26903804704454</v>
       </c>
       <c r="AF388" t="n">
-        <v>0.298604145980737</v>
+        <v>0.1233121447616618</v>
       </c>
       <c r="AG388" t="inlineStr">
         <is>
@@ -63009,10 +63021,10 @@
         </is>
       </c>
       <c r="AE389" t="n">
-        <v>8.07157546570965</v>
+        <v>11.69510950292398</v>
       </c>
       <c r="AF389" t="n">
-        <v>0.3314094910885981</v>
+        <v>0.08606861311461853</v>
       </c>
       <c r="AG389" t="inlineStr">
         <is>
@@ -63170,10 +63182,10 @@
         </is>
       </c>
       <c r="AE390" t="n">
-        <v>7.889290240622282</v>
+        <v>11.92961108009012</v>
       </c>
       <c r="AF390" t="n">
-        <v>0.3410123710331022</v>
+        <v>0.06360611264335388</v>
       </c>
       <c r="AG390" t="inlineStr">
         <is>
@@ -63331,10 +63343,10 @@
         </is>
       </c>
       <c r="AE391" t="n">
-        <v>9.152595301574145</v>
+        <v>11.93032966586107</v>
       </c>
       <c r="AF391" t="n">
-        <v>0.2689342001737002</v>
+        <v>0.0635833209896861</v>
       </c>
       <c r="AG391" t="inlineStr">
         <is>
@@ -63492,10 +63504,10 @@
         </is>
       </c>
       <c r="AE392" t="n">
-        <v>8.256606628761741</v>
+        <v>11.95622732240156</v>
       </c>
       <c r="AF392" t="n">
-        <v>0.3200297777044016</v>
+        <v>0.06097916328727067</v>
       </c>
       <c r="AG392" t="inlineStr">
         <is>
@@ -63653,10 +63665,10 @@
         </is>
       </c>
       <c r="AE393" t="n">
-        <v>7.831797068229513</v>
+        <v>12.05173363275502</v>
       </c>
       <c r="AF393" t="n">
-        <v>0.3439840901075267</v>
+        <v>0.05115356607820363</v>
       </c>
       <c r="AG393" t="inlineStr">
         <is>
@@ -63814,10 +63826,10 @@
         </is>
       </c>
       <c r="AE394" t="n">
-        <v>7.884279124832799</v>
+        <v>11.42895492261774</v>
       </c>
       <c r="AF394" t="n">
-        <v>0.3412726850249963</v>
+        <v>0.1098045252271141</v>
       </c>
       <c r="AG394" t="inlineStr">
         <is>
@@ -63975,10 +63987,10 @@
         </is>
       </c>
       <c r="AE395" t="n">
-        <v>7.882001283618256</v>
+        <v>11.41615912744533</v>
       </c>
       <c r="AF395" t="n">
-        <v>0.3413906635576893</v>
+        <v>0.1108244439347669</v>
       </c>
       <c r="AG395" t="inlineStr">
         <is>
@@ -64136,10 +64148,10 @@
         </is>
       </c>
       <c r="AE396" t="n">
-        <v>8.841376239800997</v>
+        <v>11.0299322488897</v>
       </c>
       <c r="AF396" t="n">
-        <v>0.2879289603245122</v>
+        <v>0.1429092903969619</v>
       </c>
       <c r="AG396" t="inlineStr">
         <is>
@@ -64297,10 +64309,10 @@
         </is>
       </c>
       <c r="AE397" t="n">
-        <v>9.31951111818478</v>
+        <v>11.31271892490402</v>
       </c>
       <c r="AF397" t="n">
-        <v>0.2584481562953066</v>
+        <v>0.1197275587644922</v>
       </c>
       <c r="AG397" t="inlineStr">
         <is>
@@ -64458,10 +64470,10 @@
         </is>
       </c>
       <c r="AE398" t="n">
-        <v>8.148807685813063</v>
+        <v>12.35264021437652</v>
       </c>
       <c r="AF398" t="n">
-        <v>0.3272527311922495</v>
+        <v>0.01587985485706648</v>
       </c>
       <c r="AG398" t="inlineStr">
         <is>
@@ -64619,10 +64631,10 @@
         </is>
       </c>
       <c r="AE399" t="n">
-        <v>8.961631504331558</v>
+        <v>11.67100768296767</v>
       </c>
       <c r="AF399" t="n">
-        <v>0.28070124753382</v>
+        <v>0.08824299691523055</v>
       </c>
       <c r="AG399" t="inlineStr">
         <is>
@@ -64780,10 +64792,10 @@
         </is>
       </c>
       <c r="AE400" t="n">
-        <v>7.927846679941993</v>
+        <v>11.57908218540249</v>
       </c>
       <c r="AF400" t="n">
-        <v>0.3389912810140134</v>
+        <v>0.09658908170352727</v>
       </c>
       <c r="AG400" t="inlineStr">
         <is>
@@ -64941,10 +64953,10 @@
         </is>
       </c>
       <c r="AE401" t="n">
-        <v>7.824920906507824</v>
+        <v>12.09347556974932</v>
       </c>
       <c r="AF401" t="n">
-        <v>0.3443343454110723</v>
+        <v>0.04677099016920365</v>
       </c>
       <c r="AG401" t="inlineStr">
         <is>
@@ -65259,10 +65271,10 @@
         </is>
       </c>
       <c r="AE403" t="n">
-        <v>9.048200837954788</v>
+        <v>11.47412437251909</v>
       </c>
       <c r="AF403" t="n">
-        <v>0.2754140048163882</v>
+        <v>0.1058662029300297</v>
       </c>
       <c r="AG403" t="inlineStr">
         <is>
@@ -65420,10 +65432,10 @@
         </is>
       </c>
       <c r="AE404" t="n">
-        <v>7.864176263312636</v>
+        <v>11.38903866315407</v>
       </c>
       <c r="AF404" t="n">
-        <v>0.342314212227934</v>
+        <v>0.1132377001198157</v>
       </c>
       <c r="AG404" t="inlineStr">
         <is>
@@ -65581,10 +65593,10 @@
         </is>
       </c>
       <c r="AE405" t="n">
-        <v>7.966477397161468</v>
+        <v>11.11657728461535</v>
       </c>
       <c r="AF405" t="n">
-        <v>0.3369739239824086</v>
+        <v>0.1359433641856989</v>
       </c>
       <c r="AG405" t="inlineStr">
         <is>
@@ -65742,10 +65754,10 @@
         </is>
       </c>
       <c r="AE406" t="n">
-        <v>8.139926627465004</v>
+        <v>11.83096719178934</v>
       </c>
       <c r="AF406" t="n">
-        <v>0.3275720712184337</v>
+        <v>0.07289040829584981</v>
       </c>
       <c r="AG406" t="inlineStr">
         <is>
@@ -65903,10 +65915,10 @@
         </is>
       </c>
       <c r="AE407" t="n">
-        <v>7.799184441873059</v>
+        <v>12.22513837191654</v>
       </c>
       <c r="AF407" t="n">
-        <v>0.3456593566538937</v>
+        <v>0.03203008011205819</v>
       </c>
       <c r="AG407" t="inlineStr">
         <is>
@@ -66064,10 +66076,10 @@
         </is>
       </c>
       <c r="AE408" t="n">
-        <v>26.73128280226261</v>
+        <v>11.14104857884545</v>
       </c>
       <c r="AF408" t="n">
-        <v>0</v>
+        <v>0.1339409728522948</v>
       </c>
       <c r="AG408" t="inlineStr">
         <is>
@@ -66225,10 +66237,10 @@
         </is>
       </c>
       <c r="AE409" t="n">
-        <v>8.049621120189798</v>
+        <v>12.2677391016938</v>
       </c>
       <c r="AF409" t="n">
-        <v>0.3325833473891189</v>
+        <v>0.02684850436174249</v>
       </c>
       <c r="AG409" t="inlineStr">
         <is>
@@ -66386,10 +66398,10 @@
         </is>
       </c>
       <c r="AE410" t="n">
-        <v>7.812508124947787</v>
+        <v>12.0707742953156</v>
       </c>
       <c r="AF410" t="n">
-        <v>0.3449762973529686</v>
+        <v>0.04908784631572634</v>
       </c>
       <c r="AG410" t="inlineStr">
         <is>
@@ -66547,10 +66559,10 @@
         </is>
       </c>
       <c r="AE411" t="n">
-        <v>7.966565022955596</v>
+        <v>12.03161532410272</v>
       </c>
       <c r="AF411" t="n">
-        <v>0.3369737441847939</v>
+        <v>0.05325820147253955</v>
       </c>
       <c r="AG411" t="inlineStr">
         <is>
@@ -66708,10 +66720,10 @@
         </is>
       </c>
       <c r="AE412" t="n">
-        <v>3.771876817587018</v>
+        <v>11.52038918250939</v>
       </c>
       <c r="AF412" t="n">
-        <v>0.4711162779947141</v>
+        <v>0.1017228509489456</v>
       </c>
       <c r="AG412" t="inlineStr">
         <is>
@@ -66869,10 +66881,10 @@
         </is>
       </c>
       <c r="AE413" t="n">
-        <v>7.761687915275207</v>
+        <v>12.01596572999331</v>
       </c>
       <c r="AF413" t="n">
-        <v>0.3475745641895801</v>
+        <v>0.05490808386021766</v>
       </c>
       <c r="AG413" t="inlineStr">
         <is>
@@ -67030,10 +67042,10 @@
         </is>
       </c>
       <c r="AE414" t="n">
-        <v>8.486325373775312</v>
+        <v>11.74088101173526</v>
       </c>
       <c r="AF414" t="n">
-        <v>0.3085457999921951</v>
+        <v>0.08178563416877857</v>
       </c>
       <c r="AG414" t="inlineStr">
         <is>
@@ -67191,10 +67203,10 @@
         </is>
       </c>
       <c r="AE415" t="n">
-        <v>8.277313181755909</v>
+        <v>11.77889664196072</v>
       </c>
       <c r="AF415" t="n">
-        <v>0.3202649379755879</v>
+        <v>0.07825722203978674</v>
       </c>
       <c r="AG415" t="inlineStr">
         <is>
@@ -67352,10 +67364,10 @@
         </is>
       </c>
       <c r="AE416" t="n">
-        <v>8.641374816303127</v>
+        <v>11.72027945170428</v>
       </c>
       <c r="AF416" t="n">
-        <v>0.2996905427221564</v>
+        <v>0.08371503749615616</v>
       </c>
       <c r="AG416" t="inlineStr">
         <is>
@@ -67513,10 +67525,10 @@
         </is>
       </c>
       <c r="AE417" t="n">
-        <v>7.943885929329744</v>
+        <v>11.60718151077419</v>
       </c>
       <c r="AF417" t="n">
-        <v>0.3381656579470689</v>
+        <v>0.09401075746547691</v>
       </c>
       <c r="AG417" t="inlineStr">
         <is>
@@ -67674,10 +67686,10 @@
         </is>
       </c>
       <c r="AE418" t="n">
-        <v>8.57443260043318</v>
+        <v>11.39965814576859</v>
       </c>
       <c r="AF418" t="n">
-        <v>0.3035173578505086</v>
+        <v>0.1122096529415588</v>
       </c>
       <c r="AG418" t="inlineStr">
         <is>
@@ -67835,10 +67847,10 @@
         </is>
       </c>
       <c r="AE419" t="n">
-        <v>7.962138903867248</v>
+        <v>11.1140639386068</v>
       </c>
       <c r="AF419" t="n">
-        <v>0.3371989408247719</v>
+        <v>0.1360830354501878</v>
       </c>
       <c r="AG419" t="inlineStr">
         <is>
@@ -67996,10 +68008,10 @@
         </is>
       </c>
       <c r="AE420" t="n">
-        <v>8.605330753095579</v>
+        <v>11.58129334159946</v>
       </c>
       <c r="AF420" t="n">
-        <v>0.3017791526021327</v>
+        <v>0.09640853464318808</v>
       </c>
       <c r="AG420" t="inlineStr">
         <is>
@@ -68157,10 +68169,10 @@
         </is>
       </c>
       <c r="AE421" t="n">
-        <v>7.870487643228942</v>
+        <v>12.22402650767955</v>
       </c>
       <c r="AF421" t="n">
-        <v>0.3407283926256894</v>
+        <v>0.03211885820317912</v>
       </c>
       <c r="AG421" t="inlineStr">
         <is>
@@ -68318,10 +68330,10 @@
         </is>
       </c>
       <c r="AE422" t="n">
-        <v>8.188377162333019</v>
+        <v>12.08578949947532</v>
       </c>
       <c r="AF422" t="n">
-        <v>0.3249499331865606</v>
+        <v>0.0475522083172492</v>
       </c>
       <c r="AG422" t="inlineStr">
         <is>
@@ -68479,10 +68491,10 @@
         </is>
       </c>
       <c r="AE423" t="n">
-        <v>8.586132270880594</v>
+        <v>12.05602070868767</v>
       </c>
       <c r="AF423" t="n">
-        <v>0.3028510211833664</v>
+        <v>0.05074004828147546</v>
       </c>
       <c r="AG423" t="inlineStr">
         <is>
@@ -68640,10 +68652,10 @@
         </is>
       </c>
       <c r="AE424" t="n">
-        <v>8.204777807198109</v>
+        <v>11.35319062351804</v>
       </c>
       <c r="AF424" t="n">
-        <v>0.3242329142788855</v>
+        <v>0.1162880579900699</v>
       </c>
       <c r="AG424" t="inlineStr">
         <is>
@@ -68801,10 +68813,10 @@
         </is>
       </c>
       <c r="AE425" t="n">
-        <v>7.985540857767019</v>
+        <v>11.4778552347851</v>
       </c>
       <c r="AF425" t="n">
-        <v>0.3359775302377246</v>
+        <v>0.1054759348868286</v>
       </c>
       <c r="AG425" t="inlineStr">
         <is>
@@ -68962,10 +68974,10 @@
         </is>
       </c>
       <c r="AE426" t="n">
-        <v>8.070491892061689</v>
+        <v>11.18814367644118</v>
       </c>
       <c r="AF426" t="n">
-        <v>0.3314725714938389</v>
+        <v>0.1300988028364941</v>
       </c>
       <c r="AG426" t="inlineStr">
         <is>
@@ -69123,10 +69135,10 @@
         </is>
       </c>
       <c r="AE427" t="n">
-        <v>7.960636126056222</v>
+        <v>12.03662658069486</v>
       </c>
       <c r="AF427" t="n">
-        <v>0.3372848269632576</v>
+        <v>0.05276012587495591</v>
       </c>
       <c r="AG427" t="inlineStr">
         <is>
@@ -69284,10 +69296,10 @@
         </is>
       </c>
       <c r="AE428" t="n">
-        <v>10.01517869712389</v>
+        <v>11.44085476838884</v>
       </c>
       <c r="AF428" t="n">
-        <v>0.2119139037719588</v>
+        <v>0.1087718549275765</v>
       </c>
       <c r="AG428" t="inlineStr">
         <is>
@@ -69445,10 +69457,10 @@
         </is>
       </c>
       <c r="AE429" t="n">
-        <v>9.995440930842914</v>
+        <v>11.16783498710654</v>
       </c>
       <c r="AF429" t="n">
-        <v>0.2132926123298937</v>
+        <v>0.131775613799093</v>
       </c>
       <c r="AG429" t="inlineStr">
         <is>
@@ -69606,10 +69618,10 @@
         </is>
       </c>
       <c r="AE430" t="n">
-        <v>7.929863362184791</v>
+        <v>10.96811477033726</v>
       </c>
       <c r="AF430" t="n">
-        <v>0.338834313604454</v>
+        <v>0.1478081324235271</v>
       </c>
       <c r="AG430" t="inlineStr">
         <is>
@@ -69767,10 +69779,10 @@
         </is>
       </c>
       <c r="AE431" t="n">
-        <v>8.457438355464971</v>
+        <v>11.27253392758694</v>
       </c>
       <c r="AF431" t="n">
-        <v>0.3102193252699122</v>
+        <v>0.123096095246946</v>
       </c>
       <c r="AG431" t="inlineStr">
         <is>
@@ -69928,10 +69940,10 @@
         </is>
       </c>
       <c r="AE432" t="n">
-        <v>8.658628237149127</v>
+        <v>11.37820101839653</v>
       </c>
       <c r="AF432" t="n">
-        <v>0.2986912944277963</v>
+        <v>0.1141661338546466</v>
       </c>
       <c r="AG432" t="inlineStr">
         <is>
@@ -70089,10 +70101,10 @@
         </is>
       </c>
       <c r="AE433" t="n">
-        <v>41.86618490555923</v>
+        <v>11.75190072014112</v>
       </c>
       <c r="AF433" t="n">
-        <v>0</v>
+        <v>0.08074646097159242</v>
       </c>
       <c r="AG433" t="inlineStr">
         <is>
@@ -70250,10 +70262,10 @@
         </is>
       </c>
       <c r="AE434" t="n">
-        <v>8.760251378550141</v>
+        <v>11.81030002890834</v>
       </c>
       <c r="AF434" t="n">
-        <v>0.2927409432598947</v>
+        <v>0.07523056258073957</v>
       </c>
       <c r="AG434" t="inlineStr">
         <is>
@@ -70411,10 +70423,10 @@
         </is>
       </c>
       <c r="AE435" t="n">
-        <v>8.095831546063776</v>
+        <v>11.42668040127264</v>
       </c>
       <c r="AF435" t="n">
-        <v>0.3301177351025279</v>
+        <v>0.1099909313911036</v>
       </c>
       <c r="AG435" t="inlineStr">
         <is>
@@ -70572,10 +70584,10 @@
         </is>
       </c>
       <c r="AE436" t="n">
-        <v>7.828856254873729</v>
+        <v>12.25575807928572</v>
       </c>
       <c r="AF436" t="n">
-        <v>0.3441329308667619</v>
+        <v>0.02834926498733139</v>
       </c>
       <c r="AG436" t="inlineStr">
         <is>
@@ -70733,10 +70745,10 @@
         </is>
       </c>
       <c r="AE437" t="n">
-        <v>7.797944027258072</v>
+        <v>11.46005639674399</v>
       </c>
       <c r="AF437" t="n">
-        <v>0.3457169977560662</v>
+        <v>0.1069477419095087</v>
       </c>
       <c r="AG437" t="inlineStr">
         <is>
@@ -70894,10 +70906,10 @@
         </is>
       </c>
       <c r="AE438" t="n">
-        <v>7.906547803827286</v>
+        <v>11.35650088299231</v>
       </c>
       <c r="AF438" t="n">
-        <v>0.3401151649087145</v>
+        <v>0.1160038109377818</v>
       </c>
       <c r="AG438" t="inlineStr">
         <is>
@@ -71055,10 +71067,10 @@
         </is>
       </c>
       <c r="AE439" t="n">
-        <v>7.731061775506263</v>
+        <v>12.27396170617451</v>
       </c>
       <c r="AF439" t="n">
-        <v>0.3491305662510603</v>
+        <v>0.02617945688323276</v>
       </c>
       <c r="AG439" t="inlineStr">
         <is>
@@ -71216,10 +71228,10 @@
         </is>
       </c>
       <c r="AE440" t="n">
-        <v>8.137207656848966</v>
+        <v>11.98738130157817</v>
       </c>
       <c r="AF440" t="n">
-        <v>0.32789475849514</v>
+        <v>0.05784427507352283</v>
       </c>
       <c r="AG440" t="inlineStr">
         <is>
@@ -71377,10 +71389,10 @@
         </is>
       </c>
       <c r="AE441" t="n">
-        <v>7.777840717516701</v>
+        <v>11.66152224118281</v>
       </c>
       <c r="AF441" t="n">
-        <v>0.3467510523496875</v>
+        <v>0.08915738578205139</v>
       </c>
       <c r="AG441" t="inlineStr">
         <is>
@@ -71538,10 +71550,10 @@
         </is>
       </c>
       <c r="AE442" t="n">
-        <v>7.776930306943217</v>
+        <v>11.82552459207088</v>
       </c>
       <c r="AF442" t="n">
-        <v>0.346791645611437</v>
+        <v>0.07381093033251201</v>
       </c>
       <c r="AG442" t="inlineStr">
         <is>
@@ -71699,10 +71711,10 @@
         </is>
       </c>
       <c r="AE443" t="n">
-        <v>8.008966854279942</v>
+        <v>12.08513620027354</v>
       </c>
       <c r="AF443" t="n">
-        <v>0.3347394190006169</v>
+        <v>0.04763105264561448</v>
       </c>
       <c r="AG443" t="inlineStr">
         <is>
@@ -71860,10 +71872,10 @@
         </is>
       </c>
       <c r="AE444" t="n">
-        <v>7.884011600946405</v>
+        <v>12.04884989427212</v>
       </c>
       <c r="AF444" t="n">
-        <v>0.3412837569251824</v>
+        <v>0.05135703327208711</v>
       </c>
       <c r="AG444" t="inlineStr">
         <is>
@@ -72021,10 +72033,10 @@
         </is>
       </c>
       <c r="AE445" t="n">
-        <v>7.873790018944607</v>
+        <v>12.00065332837371</v>
       </c>
       <c r="AF445" t="n">
-        <v>0.3418165238694041</v>
+        <v>0.05649175744674727</v>
       </c>
       <c r="AG445" t="inlineStr">
         <is>
@@ -72182,10 +72194,10 @@
         </is>
       </c>
       <c r="AE446" t="n">
-        <v>8.086300966786032</v>
+        <v>11.82389334355466</v>
       </c>
       <c r="AF446" t="n">
-        <v>0.3306283079653414</v>
+        <v>0.07397653965703155</v>
       </c>
       <c r="AG446" t="inlineStr">
         <is>
@@ -72343,10 +72355,10 @@
         </is>
       </c>
       <c r="AE447" t="n">
-        <v>8.066414535304911</v>
+        <v>11.63846234391032</v>
       </c>
       <c r="AF447" t="n">
-        <v>0.3316904753032823</v>
+        <v>0.09124346372217325</v>
       </c>
       <c r="AG447" t="inlineStr">
         <is>
@@ -72504,10 +72516,10 @@
         </is>
       </c>
       <c r="AE448" t="n">
-        <v>8.047005309434461</v>
+        <v>12.01659164554531</v>
       </c>
       <c r="AF448" t="n">
-        <v>0.3327228931061062</v>
+        <v>0.05477040531531509</v>
       </c>
       <c r="AG448" t="inlineStr">
         <is>
@@ -72665,10 +72677,10 @@
         </is>
       </c>
       <c r="AE449" t="n">
-        <v>7.709095205172035</v>
+        <v>11.92522576777091</v>
       </c>
       <c r="AF449" t="n">
-        <v>0.3501741046175606</v>
+        <v>0.06409541852577959</v>
       </c>
       <c r="AG449" t="inlineStr">
         <is>
@@ -72826,10 +72838,10 @@
         </is>
       </c>
       <c r="AE450" t="n">
-        <v>8.153134326401155</v>
+        <v>11.66983001197462</v>
       </c>
       <c r="AF450" t="n">
-        <v>0.3270295199700027</v>
+        <v>0.08838689873896194</v>
       </c>
       <c r="AG450" t="inlineStr">
         <is>
@@ -72987,10 +72999,10 @@
         </is>
       </c>
       <c r="AE451" t="n">
-        <v>7.874954062382229</v>
+        <v>11.49452342870446</v>
       </c>
       <c r="AF451" t="n">
-        <v>0.3417191987382376</v>
+        <v>0.1040118945175507</v>
       </c>
       <c r="AG451" t="inlineStr">
         <is>
@@ -73148,10 +73160,10 @@
         </is>
       </c>
       <c r="AE452" t="n">
-        <v>8.303589031967928</v>
+        <v>12.11541654422847</v>
       </c>
       <c r="AF452" t="n">
-        <v>0.3188164332106582</v>
+        <v>0.04433895056085878</v>
       </c>
       <c r="AG452" t="inlineStr">
         <is>
@@ -73309,10 +73321,10 @@
         </is>
       </c>
       <c r="AE453" t="n">
-        <v>7.919736941005171</v>
+        <v>12.29393576676917</v>
       </c>
       <c r="AF453" t="n">
-        <v>0.3394260465841504</v>
+        <v>0.02360377199229589</v>
       </c>
       <c r="AG453" t="inlineStr">
         <is>
@@ -73470,10 +73482,10 @@
         </is>
       </c>
       <c r="AE454" t="n">
-        <v>7.809852343438905</v>
+        <v>11.96216344509209</v>
       </c>
       <c r="AF454" t="n">
-        <v>0.3451029273354065</v>
+        <v>0.06033305117654274</v>
       </c>
       <c r="AG454" t="inlineStr">
         <is>
@@ -73631,10 +73643,10 @@
         </is>
       </c>
       <c r="AE455" t="n">
-        <v>7.948631163438462</v>
+        <v>12.20608550966436</v>
       </c>
       <c r="AF455" t="n">
-        <v>0.3379170466300284</v>
+        <v>0.03424929955882593</v>
       </c>
       <c r="AG455" t="inlineStr">
         <is>
@@ -73792,10 +73804,10 @@
         </is>
       </c>
       <c r="AE456" t="n">
-        <v>9.193405888174912</v>
+        <v>11.94851234876203</v>
       </c>
       <c r="AF456" t="n">
-        <v>0.2664060893147092</v>
+        <v>0.06177340765038833</v>
       </c>
       <c r="AG456" t="inlineStr">
         <is>
@@ -73953,10 +73965,10 @@
         </is>
       </c>
       <c r="AE457" t="n">
-        <v>8.966100238046204</v>
+        <v>11.96777449627756</v>
       </c>
       <c r="AF457" t="n">
-        <v>0.2804117494123626</v>
+        <v>0.05982963360307111</v>
       </c>
       <c r="AG457" t="inlineStr">
         <is>
@@ -74114,10 +74126,10 @@
         </is>
       </c>
       <c r="AE458" t="n">
-        <v>8.040488625031587</v>
+        <v>11.23034172716456</v>
       </c>
       <c r="AF458" t="n">
-        <v>0.3330705115215478</v>
+        <v>0.1265715009591339</v>
       </c>
       <c r="AG458" t="inlineStr">
         <is>
@@ -74275,10 +74287,10 @@
         </is>
       </c>
       <c r="AE459" t="n">
-        <v>7.965529440457146</v>
+        <v>12.19259799883142</v>
       </c>
       <c r="AF459" t="n">
-        <v>0.337011331696553</v>
+        <v>0.03574766322767405</v>
       </c>
       <c r="AG459" t="inlineStr">
         <is>
@@ -74592,8 +74604,12 @@
           <t>COS 13235</t>
         </is>
       </c>
-      <c r="AE461" t="inlineStr"/>
-      <c r="AF461" t="inlineStr"/>
+      <c r="AE461" t="n">
+        <v>11.04137255897643</v>
+      </c>
+      <c r="AF461" t="n">
+        <v>0.1420204920457349</v>
+      </c>
       <c r="AG461" t="inlineStr">
         <is>
           <t>Plantation Cycle Complete</t>
@@ -74750,10 +74766,10 @@
         </is>
       </c>
       <c r="AE462" t="n">
-        <v>8.275955196068967</v>
+        <v>12.00991482132839</v>
       </c>
       <c r="AF462" t="n">
-        <v>0.320337413362345</v>
+        <v>0.05546530764578084</v>
       </c>
       <c r="AG462" t="inlineStr">
         <is>
@@ -74911,10 +74927,10 @@
         </is>
       </c>
       <c r="AE463" t="n">
-        <v>7.793778137386779</v>
+        <v>12.3286490603224</v>
       </c>
       <c r="AF463" t="n">
-        <v>0.3459360081620155</v>
+        <v>0.01920741019079418</v>
       </c>
       <c r="AG463" t="inlineStr">
         <is>
@@ -75072,10 +75088,10 @@
         </is>
       </c>
       <c r="AE464" t="n">
-        <v>9.441282784509655</v>
+        <v>10.93692356518806</v>
       </c>
       <c r="AF464" t="n">
-        <v>0.2482364062071678</v>
+        <v>0.1503337693160993</v>
       </c>
       <c r="AG464" t="inlineStr">
         <is>
@@ -75233,10 +75249,10 @@
         </is>
       </c>
       <c r="AE465" t="n">
-        <v>7.685487682243284</v>
+        <v>11.81654849260097</v>
       </c>
       <c r="AF465" t="n">
-        <v>0.3514322828927267</v>
+        <v>0.07467946768220249</v>
       </c>
       <c r="AG465" t="inlineStr">
         <is>
@@ -75394,10 +75410,10 @@
         </is>
       </c>
       <c r="AE466" t="n">
-        <v>0</v>
+        <v>11.59206614752116</v>
       </c>
       <c r="AF466" t="n">
-        <v>0.2249587749461162</v>
+        <v>0.09543127651863606</v>
       </c>
       <c r="AG466" t="inlineStr">
         <is>
@@ -75555,10 +75571,10 @@
         </is>
       </c>
       <c r="AE467" t="n">
-        <v>9.13915989738055</v>
+        <v>12.16591144482751</v>
       </c>
       <c r="AF467" t="n">
-        <v>0.2697643441851073</v>
+        <v>0.03880785030609379</v>
       </c>
       <c r="AG467" t="inlineStr">
         <is>
@@ -75716,10 +75732,10 @@
         </is>
       </c>
       <c r="AE468" t="n">
-        <v>7.793510538072102</v>
+        <v>11.77742731555526</v>
       </c>
       <c r="AF468" t="n">
-        <v>0.3458457666859284</v>
+        <v>0.07821468089894495</v>
       </c>
       <c r="AG468" t="inlineStr">
         <is>
@@ -75877,10 +75893,10 @@
         </is>
       </c>
       <c r="AE469" t="n">
-        <v>7.63842954375759</v>
+        <v>11.91667695467024</v>
       </c>
       <c r="AF469" t="n">
-        <v>0.3537918832555252</v>
+        <v>0.06494389349492312</v>
       </c>
       <c r="AG469" t="inlineStr">
         <is>
@@ -76038,10 +76054,10 @@
         </is>
       </c>
       <c r="AE470" t="n">
-        <v>8.476474633626314</v>
+        <v>11.44219605721493</v>
       </c>
       <c r="AF470" t="n">
-        <v>0.3090717887635371</v>
+        <v>0.1086167235135334</v>
       </c>
       <c r="AG470" t="inlineStr">
         <is>
@@ -76199,10 +76215,10 @@
         </is>
       </c>
       <c r="AE471" t="n">
-        <v>7.667622505606447</v>
+        <v>10.81291780168912</v>
       </c>
       <c r="AF471" t="n">
-        <v>0.3523269583904209</v>
+        <v>0.159997818307593</v>
       </c>
       <c r="AG471" t="inlineStr">
         <is>
@@ -76360,10 +76376,10 @@
         </is>
       </c>
       <c r="AE472" t="n">
-        <v>7.881623384502198</v>
+        <v>11.5936746630134</v>
       </c>
       <c r="AF472" t="n">
-        <v>0.3414101681848461</v>
+        <v>0.09530061928472761</v>
       </c>
       <c r="AG472" t="inlineStr">
         <is>
@@ -76521,10 +76537,10 @@
         </is>
       </c>
       <c r="AE473" t="n">
-        <v>7.799284270857664</v>
+        <v>11.80024149183967</v>
       </c>
       <c r="AF473" t="n">
-        <v>0.3456534557357943</v>
+        <v>0.07623395414970273</v>
       </c>
       <c r="AG473" t="inlineStr">
         <is>
@@ -76682,10 +76698,10 @@
         </is>
       </c>
       <c r="AE474" t="n">
-        <v>7.808657295981266</v>
+        <v>11.83813155352121</v>
       </c>
       <c r="AF474" t="n">
-        <v>0.3451647921547358</v>
+        <v>0.07260205412899334</v>
       </c>
       <c r="AG474" t="inlineStr">
         <is>
@@ -76843,10 +76859,10 @@
         </is>
       </c>
       <c r="AE475" t="n">
-        <v>7.760702514346583</v>
+        <v>11.21383508088102</v>
       </c>
       <c r="AF475" t="n">
-        <v>0.3475922863682001</v>
+        <v>0.1279398830814547</v>
       </c>
       <c r="AG475" t="inlineStr">
         <is>
@@ -77004,10 +77020,10 @@
         </is>
       </c>
       <c r="AE476" t="n">
-        <v>7.803222252710309</v>
+        <v>12.21063426023372</v>
       </c>
       <c r="AF476" t="n">
-        <v>0.3454491840769243</v>
+        <v>0.03371023662004466</v>
       </c>
       <c r="AG476" t="inlineStr">
         <is>
@@ -77165,10 +77181,10 @@
         </is>
       </c>
       <c r="AE477" t="n">
-        <v>7.960143421732623</v>
+        <v>12.00774479994349</v>
       </c>
       <c r="AF477" t="n">
-        <v>0.337313328055495</v>
+        <v>0.05557569604756573</v>
       </c>
       <c r="AG477" t="inlineStr">
         <is>
@@ -77326,10 +77342,10 @@
         </is>
       </c>
       <c r="AE478" t="n">
-        <v>7.910289021494033</v>
+        <v>12.05040400617769</v>
       </c>
       <c r="AF478" t="n">
-        <v>0.3399203763441884</v>
+        <v>0.05133713813612928</v>
       </c>
       <c r="AG478" t="inlineStr">
         <is>
@@ -77487,10 +77503,10 @@
         </is>
       </c>
       <c r="AE479" t="n">
-        <v>8.194756983058928</v>
+        <v>11.94819748144614</v>
       </c>
       <c r="AF479" t="n">
-        <v>0.3247691594151341</v>
+        <v>0.06179397747213159</v>
       </c>
       <c r="AG479" t="inlineStr">
         <is>
@@ -77648,10 +77664,10 @@
         </is>
       </c>
       <c r="AE480" t="n">
-        <v>7.916622896760867</v>
+        <v>12.26375254267212</v>
       </c>
       <c r="AF480" t="n">
-        <v>0.3395874391183072</v>
+        <v>0.02738477009049408</v>
       </c>
       <c r="AG480" t="inlineStr">
         <is>
@@ -77966,10 +77982,10 @@
         </is>
       </c>
       <c r="AE482" t="n">
-        <v>7.801853172757738</v>
+        <v>12.16587087127466</v>
       </c>
       <c r="AF482" t="n">
-        <v>0.3455205238145507</v>
+        <v>0.0385768836646116</v>
       </c>
       <c r="AG482" t="inlineStr">
         <is>
@@ -78127,10 +78143,10 @@
         </is>
       </c>
       <c r="AE483" t="n">
-        <v>7.7652144132954</v>
+        <v>12.16726926860159</v>
       </c>
       <c r="AF483" t="n">
-        <v>0.3473831380124648</v>
+        <v>0.03860152503978062</v>
       </c>
       <c r="AG483" t="inlineStr">
         <is>
@@ -78288,10 +78304,10 @@
         </is>
       </c>
       <c r="AE484" t="n">
-        <v>7.76347479527725</v>
+        <v>12.1959374965853</v>
       </c>
       <c r="AF484" t="n">
-        <v>0.3474836350631432</v>
+        <v>0.03543102963198833</v>
       </c>
       <c r="AG484" t="inlineStr">
         <is>
@@ -78449,10 +78465,10 @@
         </is>
       </c>
       <c r="AE485" t="n">
-        <v>8.225170457137365</v>
+        <v>11.76589703995844</v>
       </c>
       <c r="AF485" t="n">
-        <v>0.3231171471200835</v>
+        <v>0.07938230821058585</v>
       </c>
       <c r="AG485" t="inlineStr">
         <is>
@@ -78610,10 +78626,10 @@
         </is>
       </c>
       <c r="AE486" t="n">
-        <v>7.970869984791716</v>
+        <v>12.10409188300301</v>
       </c>
       <c r="AF486" t="n">
-        <v>0.3366913992355084</v>
+        <v>0.04485187781238173</v>
       </c>
       <c r="AG486" t="inlineStr">
         <is>
@@ -78771,10 +78787,10 @@
         </is>
       </c>
       <c r="AE487" t="n">
-        <v>8.334406658679672</v>
+        <v>11.8136930609974</v>
       </c>
       <c r="AF487" t="n">
-        <v>0.3171001402316776</v>
+        <v>0.0747725448654586</v>
       </c>
       <c r="AG487" t="inlineStr">
         <is>
@@ -78932,10 +78948,10 @@
         </is>
       </c>
       <c r="AE488" t="n">
-        <v>8.446411728321253</v>
+        <v>12.14337132612312</v>
       </c>
       <c r="AF488" t="n">
-        <v>0.3108446102957239</v>
+        <v>0.04123272132775137</v>
       </c>
       <c r="AG488" t="inlineStr">
         <is>
@@ -79093,10 +79109,10 @@
         </is>
       </c>
       <c r="AE489" t="n">
-        <v>2.723563492082795</v>
+        <v>11.65734408693759</v>
       </c>
       <c r="AF489" t="n">
-        <v>0.2841879545763358</v>
+        <v>0.08952324355619179</v>
       </c>
       <c r="AG489" t="inlineStr">
         <is>
@@ -79254,10 +79270,10 @@
         </is>
       </c>
       <c r="AE490" t="n">
-        <v>0.2590124818638256</v>
+        <v>11.28843903164242</v>
       </c>
       <c r="AF490" t="n">
-        <v>0.4160478939964183</v>
+        <v>0.1209488664268658</v>
       </c>
       <c r="AG490" t="inlineStr">
         <is>
@@ -79415,10 +79431,10 @@
         </is>
       </c>
       <c r="AE491" t="n">
-        <v>8.574964235517466</v>
+        <v>12.33690382848871</v>
       </c>
       <c r="AF491" t="n">
-        <v>0.3034779474096463</v>
+        <v>0.0177992377452959</v>
       </c>
       <c r="AG491" t="inlineStr">
         <is>
@@ -79576,10 +79592,10 @@
         </is>
       </c>
       <c r="AE492" t="n">
-        <v>8.544951015810719</v>
+        <v>12.31526732339168</v>
       </c>
       <c r="AF492" t="n">
-        <v>0.3052288749680531</v>
+        <v>0.02093310966659992</v>
       </c>
       <c r="AG492" t="inlineStr">
         <is>
@@ -79737,10 +79753,10 @@
         </is>
       </c>
       <c r="AE493" t="n">
-        <v>7.676605556633354</v>
+        <v>12.13336684847178</v>
       </c>
       <c r="AF493" t="n">
-        <v>0.3518755042900517</v>
+        <v>0.04227216752198649</v>
       </c>
       <c r="AG493" t="inlineStr">
         <is>
@@ -79898,10 +79914,10 @@
         </is>
       </c>
       <c r="AE494" t="n">
-        <v>7.741465076127077</v>
+        <v>11.75522031737298</v>
       </c>
       <c r="AF494" t="n">
-        <v>0.3486027234449398</v>
+        <v>0.08046818891172657</v>
       </c>
       <c r="AG494" t="inlineStr">
         <is>
@@ -80059,10 +80075,10 @@
         </is>
       </c>
       <c r="AE495" t="n">
-        <v>7.805647032379514</v>
+        <v>11.79083133602808</v>
       </c>
       <c r="AF495" t="n">
-        <v>0.3453242945628687</v>
+        <v>0.07703758508488567</v>
       </c>
       <c r="AG495" t="inlineStr">
         <is>
@@ -80220,10 +80236,10 @@
         </is>
       </c>
       <c r="AE496" t="n">
-        <v>8.709301278224878</v>
+        <v>11.13947014228702</v>
       </c>
       <c r="AF496" t="n">
-        <v>0.2957289483722658</v>
+        <v>0.1339276903343868</v>
       </c>
       <c r="AG496" t="inlineStr">
         <is>
@@ -80381,10 +80397,10 @@
         </is>
       </c>
       <c r="AE497" t="n">
-        <v>8.402304966171394</v>
+        <v>11.90954493368438</v>
       </c>
       <c r="AF497" t="n">
-        <v>0.3133240061921568</v>
+        <v>0.06562220956620696</v>
       </c>
       <c r="AG497" t="inlineStr">
         <is>
@@ -80542,10 +80558,10 @@
         </is>
       </c>
       <c r="AE498" t="n">
-        <v>8.710027114096144</v>
+        <v>10.85404758313258</v>
       </c>
       <c r="AF498" t="n">
-        <v>0.295693721510154</v>
+        <v>0.1568156835822165</v>
       </c>
       <c r="AG498" t="inlineStr">
         <is>
@@ -80703,10 +80719,10 @@
         </is>
       </c>
       <c r="AE499" t="n">
-        <v>8.674663031549091</v>
+        <v>11.82357076499374</v>
       </c>
       <c r="AF499" t="n">
-        <v>0.2975514939539201</v>
+        <v>0.07400381140473355</v>
       </c>
       <c r="AG499" t="inlineStr">
         <is>
